--- a/CMS.Web/Modules/Sails/Admin/ExportTemplates/TourCommand.xlsx
+++ b/CMS.Web/Modules/Sails/Admin/ExportTemplates/TourCommand.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thieu\Desktop\moorientalsails\CMS.Web\Modules\Sails\Admin\ExportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\orientalsails\CMS.Web\Modules\Sails\Admin\ExportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E03C5C0-9D85-4AAD-BC09-DAAB9287BD5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4147591A-28E9-4C5C-A337-7DB368A4D737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tour Command" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tour Command'!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tour Command'!$A$1:$L$20</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -46,9 +46,6 @@
     <t>No of pax</t>
   </si>
   <si>
-    <t>Special request</t>
-  </si>
-  <si>
     <t>Adult</t>
   </si>
   <si>
@@ -95,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">Guide's Salary      </t>
+  </si>
+  <si>
+    <t>Special request food</t>
+  </si>
+  <si>
+    <t>Special request room</t>
   </si>
 </sst>
 </file>
@@ -388,13 +391,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -404,7 +405,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,57 +471,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -551,16 +501,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -903,488 +937,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="6" width="5.85546875" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="64" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="64" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" customWidth="1"/>
-    <col min="27" max="27" width="40.85546875" style="32" customWidth="1"/>
-    <col min="259" max="259" width="3.7109375" customWidth="1"/>
-    <col min="260" max="260" width="22.85546875" customWidth="1"/>
-    <col min="261" max="263" width="5.85546875" customWidth="1"/>
-    <col min="264" max="264" width="8" customWidth="1"/>
-    <col min="265" max="265" width="20" customWidth="1"/>
-    <col min="266" max="266" width="38.140625" customWidth="1"/>
-    <col min="267" max="268" width="10.42578125" customWidth="1"/>
-    <col min="515" max="515" width="3.7109375" customWidth="1"/>
-    <col min="516" max="516" width="22.85546875" customWidth="1"/>
-    <col min="517" max="519" width="5.85546875" customWidth="1"/>
-    <col min="520" max="520" width="8" customWidth="1"/>
-    <col min="521" max="521" width="20" customWidth="1"/>
-    <col min="522" max="522" width="38.140625" customWidth="1"/>
-    <col min="523" max="524" width="10.42578125" customWidth="1"/>
-    <col min="771" max="771" width="3.7109375" customWidth="1"/>
-    <col min="772" max="772" width="22.85546875" customWidth="1"/>
-    <col min="773" max="775" width="5.85546875" customWidth="1"/>
-    <col min="776" max="776" width="8" customWidth="1"/>
-    <col min="777" max="777" width="20" customWidth="1"/>
-    <col min="778" max="778" width="38.140625" customWidth="1"/>
-    <col min="779" max="780" width="10.42578125" customWidth="1"/>
-    <col min="1027" max="1027" width="3.7109375" customWidth="1"/>
-    <col min="1028" max="1028" width="22.85546875" customWidth="1"/>
-    <col min="1029" max="1031" width="5.85546875" customWidth="1"/>
-    <col min="1032" max="1032" width="8" customWidth="1"/>
-    <col min="1033" max="1033" width="20" customWidth="1"/>
-    <col min="1034" max="1034" width="38.140625" customWidth="1"/>
-    <col min="1035" max="1036" width="10.42578125" customWidth="1"/>
-    <col min="1283" max="1283" width="3.7109375" customWidth="1"/>
-    <col min="1284" max="1284" width="22.85546875" customWidth="1"/>
-    <col min="1285" max="1287" width="5.85546875" customWidth="1"/>
-    <col min="1288" max="1288" width="8" customWidth="1"/>
-    <col min="1289" max="1289" width="20" customWidth="1"/>
-    <col min="1290" max="1290" width="38.140625" customWidth="1"/>
-    <col min="1291" max="1292" width="10.42578125" customWidth="1"/>
-    <col min="1539" max="1539" width="3.7109375" customWidth="1"/>
-    <col min="1540" max="1540" width="22.85546875" customWidth="1"/>
-    <col min="1541" max="1543" width="5.85546875" customWidth="1"/>
-    <col min="1544" max="1544" width="8" customWidth="1"/>
-    <col min="1545" max="1545" width="20" customWidth="1"/>
-    <col min="1546" max="1546" width="38.140625" customWidth="1"/>
-    <col min="1547" max="1548" width="10.42578125" customWidth="1"/>
-    <col min="1795" max="1795" width="3.7109375" customWidth="1"/>
-    <col min="1796" max="1796" width="22.85546875" customWidth="1"/>
-    <col min="1797" max="1799" width="5.85546875" customWidth="1"/>
-    <col min="1800" max="1800" width="8" customWidth="1"/>
-    <col min="1801" max="1801" width="20" customWidth="1"/>
-    <col min="1802" max="1802" width="38.140625" customWidth="1"/>
-    <col min="1803" max="1804" width="10.42578125" customWidth="1"/>
-    <col min="2051" max="2051" width="3.7109375" customWidth="1"/>
-    <col min="2052" max="2052" width="22.85546875" customWidth="1"/>
-    <col min="2053" max="2055" width="5.85546875" customWidth="1"/>
-    <col min="2056" max="2056" width="8" customWidth="1"/>
-    <col min="2057" max="2057" width="20" customWidth="1"/>
-    <col min="2058" max="2058" width="38.140625" customWidth="1"/>
-    <col min="2059" max="2060" width="10.42578125" customWidth="1"/>
-    <col min="2307" max="2307" width="3.7109375" customWidth="1"/>
-    <col min="2308" max="2308" width="22.85546875" customWidth="1"/>
-    <col min="2309" max="2311" width="5.85546875" customWidth="1"/>
-    <col min="2312" max="2312" width="8" customWidth="1"/>
-    <col min="2313" max="2313" width="20" customWidth="1"/>
-    <col min="2314" max="2314" width="38.140625" customWidth="1"/>
-    <col min="2315" max="2316" width="10.42578125" customWidth="1"/>
-    <col min="2563" max="2563" width="3.7109375" customWidth="1"/>
-    <col min="2564" max="2564" width="22.85546875" customWidth="1"/>
-    <col min="2565" max="2567" width="5.85546875" customWidth="1"/>
-    <col min="2568" max="2568" width="8" customWidth="1"/>
-    <col min="2569" max="2569" width="20" customWidth="1"/>
-    <col min="2570" max="2570" width="38.140625" customWidth="1"/>
-    <col min="2571" max="2572" width="10.42578125" customWidth="1"/>
-    <col min="2819" max="2819" width="3.7109375" customWidth="1"/>
-    <col min="2820" max="2820" width="22.85546875" customWidth="1"/>
-    <col min="2821" max="2823" width="5.85546875" customWidth="1"/>
-    <col min="2824" max="2824" width="8" customWidth="1"/>
-    <col min="2825" max="2825" width="20" customWidth="1"/>
-    <col min="2826" max="2826" width="38.140625" customWidth="1"/>
-    <col min="2827" max="2828" width="10.42578125" customWidth="1"/>
-    <col min="3075" max="3075" width="3.7109375" customWidth="1"/>
-    <col min="3076" max="3076" width="22.85546875" customWidth="1"/>
-    <col min="3077" max="3079" width="5.85546875" customWidth="1"/>
-    <col min="3080" max="3080" width="8" customWidth="1"/>
-    <col min="3081" max="3081" width="20" customWidth="1"/>
-    <col min="3082" max="3082" width="38.140625" customWidth="1"/>
-    <col min="3083" max="3084" width="10.42578125" customWidth="1"/>
-    <col min="3331" max="3331" width="3.7109375" customWidth="1"/>
-    <col min="3332" max="3332" width="22.85546875" customWidth="1"/>
-    <col min="3333" max="3335" width="5.85546875" customWidth="1"/>
-    <col min="3336" max="3336" width="8" customWidth="1"/>
-    <col min="3337" max="3337" width="20" customWidth="1"/>
-    <col min="3338" max="3338" width="38.140625" customWidth="1"/>
-    <col min="3339" max="3340" width="10.42578125" customWidth="1"/>
-    <col min="3587" max="3587" width="3.7109375" customWidth="1"/>
-    <col min="3588" max="3588" width="22.85546875" customWidth="1"/>
-    <col min="3589" max="3591" width="5.85546875" customWidth="1"/>
-    <col min="3592" max="3592" width="8" customWidth="1"/>
-    <col min="3593" max="3593" width="20" customWidth="1"/>
-    <col min="3594" max="3594" width="38.140625" customWidth="1"/>
-    <col min="3595" max="3596" width="10.42578125" customWidth="1"/>
-    <col min="3843" max="3843" width="3.7109375" customWidth="1"/>
-    <col min="3844" max="3844" width="22.85546875" customWidth="1"/>
-    <col min="3845" max="3847" width="5.85546875" customWidth="1"/>
-    <col min="3848" max="3848" width="8" customWidth="1"/>
-    <col min="3849" max="3849" width="20" customWidth="1"/>
-    <col min="3850" max="3850" width="38.140625" customWidth="1"/>
-    <col min="3851" max="3852" width="10.42578125" customWidth="1"/>
-    <col min="4099" max="4099" width="3.7109375" customWidth="1"/>
-    <col min="4100" max="4100" width="22.85546875" customWidth="1"/>
-    <col min="4101" max="4103" width="5.85546875" customWidth="1"/>
-    <col min="4104" max="4104" width="8" customWidth="1"/>
-    <col min="4105" max="4105" width="20" customWidth="1"/>
-    <col min="4106" max="4106" width="38.140625" customWidth="1"/>
-    <col min="4107" max="4108" width="10.42578125" customWidth="1"/>
-    <col min="4355" max="4355" width="3.7109375" customWidth="1"/>
-    <col min="4356" max="4356" width="22.85546875" customWidth="1"/>
-    <col min="4357" max="4359" width="5.85546875" customWidth="1"/>
-    <col min="4360" max="4360" width="8" customWidth="1"/>
-    <col min="4361" max="4361" width="20" customWidth="1"/>
-    <col min="4362" max="4362" width="38.140625" customWidth="1"/>
-    <col min="4363" max="4364" width="10.42578125" customWidth="1"/>
-    <col min="4611" max="4611" width="3.7109375" customWidth="1"/>
-    <col min="4612" max="4612" width="22.85546875" customWidth="1"/>
-    <col min="4613" max="4615" width="5.85546875" customWidth="1"/>
-    <col min="4616" max="4616" width="8" customWidth="1"/>
-    <col min="4617" max="4617" width="20" customWidth="1"/>
-    <col min="4618" max="4618" width="38.140625" customWidth="1"/>
-    <col min="4619" max="4620" width="10.42578125" customWidth="1"/>
-    <col min="4867" max="4867" width="3.7109375" customWidth="1"/>
-    <col min="4868" max="4868" width="22.85546875" customWidth="1"/>
-    <col min="4869" max="4871" width="5.85546875" customWidth="1"/>
-    <col min="4872" max="4872" width="8" customWidth="1"/>
-    <col min="4873" max="4873" width="20" customWidth="1"/>
-    <col min="4874" max="4874" width="38.140625" customWidth="1"/>
-    <col min="4875" max="4876" width="10.42578125" customWidth="1"/>
-    <col min="5123" max="5123" width="3.7109375" customWidth="1"/>
-    <col min="5124" max="5124" width="22.85546875" customWidth="1"/>
-    <col min="5125" max="5127" width="5.85546875" customWidth="1"/>
-    <col min="5128" max="5128" width="8" customWidth="1"/>
-    <col min="5129" max="5129" width="20" customWidth="1"/>
-    <col min="5130" max="5130" width="38.140625" customWidth="1"/>
-    <col min="5131" max="5132" width="10.42578125" customWidth="1"/>
-    <col min="5379" max="5379" width="3.7109375" customWidth="1"/>
-    <col min="5380" max="5380" width="22.85546875" customWidth="1"/>
-    <col min="5381" max="5383" width="5.85546875" customWidth="1"/>
-    <col min="5384" max="5384" width="8" customWidth="1"/>
-    <col min="5385" max="5385" width="20" customWidth="1"/>
-    <col min="5386" max="5386" width="38.140625" customWidth="1"/>
-    <col min="5387" max="5388" width="10.42578125" customWidth="1"/>
-    <col min="5635" max="5635" width="3.7109375" customWidth="1"/>
-    <col min="5636" max="5636" width="22.85546875" customWidth="1"/>
-    <col min="5637" max="5639" width="5.85546875" customWidth="1"/>
-    <col min="5640" max="5640" width="8" customWidth="1"/>
-    <col min="5641" max="5641" width="20" customWidth="1"/>
-    <col min="5642" max="5642" width="38.140625" customWidth="1"/>
-    <col min="5643" max="5644" width="10.42578125" customWidth="1"/>
-    <col min="5891" max="5891" width="3.7109375" customWidth="1"/>
-    <col min="5892" max="5892" width="22.85546875" customWidth="1"/>
-    <col min="5893" max="5895" width="5.85546875" customWidth="1"/>
-    <col min="5896" max="5896" width="8" customWidth="1"/>
-    <col min="5897" max="5897" width="20" customWidth="1"/>
-    <col min="5898" max="5898" width="38.140625" customWidth="1"/>
-    <col min="5899" max="5900" width="10.42578125" customWidth="1"/>
-    <col min="6147" max="6147" width="3.7109375" customWidth="1"/>
-    <col min="6148" max="6148" width="22.85546875" customWidth="1"/>
-    <col min="6149" max="6151" width="5.85546875" customWidth="1"/>
-    <col min="6152" max="6152" width="8" customWidth="1"/>
-    <col min="6153" max="6153" width="20" customWidth="1"/>
-    <col min="6154" max="6154" width="38.140625" customWidth="1"/>
-    <col min="6155" max="6156" width="10.42578125" customWidth="1"/>
-    <col min="6403" max="6403" width="3.7109375" customWidth="1"/>
-    <col min="6404" max="6404" width="22.85546875" customWidth="1"/>
-    <col min="6405" max="6407" width="5.85546875" customWidth="1"/>
-    <col min="6408" max="6408" width="8" customWidth="1"/>
-    <col min="6409" max="6409" width="20" customWidth="1"/>
-    <col min="6410" max="6410" width="38.140625" customWidth="1"/>
-    <col min="6411" max="6412" width="10.42578125" customWidth="1"/>
-    <col min="6659" max="6659" width="3.7109375" customWidth="1"/>
-    <col min="6660" max="6660" width="22.85546875" customWidth="1"/>
-    <col min="6661" max="6663" width="5.85546875" customWidth="1"/>
-    <col min="6664" max="6664" width="8" customWidth="1"/>
-    <col min="6665" max="6665" width="20" customWidth="1"/>
-    <col min="6666" max="6666" width="38.140625" customWidth="1"/>
-    <col min="6667" max="6668" width="10.42578125" customWidth="1"/>
-    <col min="6915" max="6915" width="3.7109375" customWidth="1"/>
-    <col min="6916" max="6916" width="22.85546875" customWidth="1"/>
-    <col min="6917" max="6919" width="5.85546875" customWidth="1"/>
-    <col min="6920" max="6920" width="8" customWidth="1"/>
-    <col min="6921" max="6921" width="20" customWidth="1"/>
-    <col min="6922" max="6922" width="38.140625" customWidth="1"/>
-    <col min="6923" max="6924" width="10.42578125" customWidth="1"/>
-    <col min="7171" max="7171" width="3.7109375" customWidth="1"/>
-    <col min="7172" max="7172" width="22.85546875" customWidth="1"/>
-    <col min="7173" max="7175" width="5.85546875" customWidth="1"/>
-    <col min="7176" max="7176" width="8" customWidth="1"/>
-    <col min="7177" max="7177" width="20" customWidth="1"/>
-    <col min="7178" max="7178" width="38.140625" customWidth="1"/>
-    <col min="7179" max="7180" width="10.42578125" customWidth="1"/>
-    <col min="7427" max="7427" width="3.7109375" customWidth="1"/>
-    <col min="7428" max="7428" width="22.85546875" customWidth="1"/>
-    <col min="7429" max="7431" width="5.85546875" customWidth="1"/>
-    <col min="7432" max="7432" width="8" customWidth="1"/>
-    <col min="7433" max="7433" width="20" customWidth="1"/>
-    <col min="7434" max="7434" width="38.140625" customWidth="1"/>
-    <col min="7435" max="7436" width="10.42578125" customWidth="1"/>
-    <col min="7683" max="7683" width="3.7109375" customWidth="1"/>
-    <col min="7684" max="7684" width="22.85546875" customWidth="1"/>
-    <col min="7685" max="7687" width="5.85546875" customWidth="1"/>
-    <col min="7688" max="7688" width="8" customWidth="1"/>
-    <col min="7689" max="7689" width="20" customWidth="1"/>
-    <col min="7690" max="7690" width="38.140625" customWidth="1"/>
-    <col min="7691" max="7692" width="10.42578125" customWidth="1"/>
-    <col min="7939" max="7939" width="3.7109375" customWidth="1"/>
-    <col min="7940" max="7940" width="22.85546875" customWidth="1"/>
-    <col min="7941" max="7943" width="5.85546875" customWidth="1"/>
-    <col min="7944" max="7944" width="8" customWidth="1"/>
-    <col min="7945" max="7945" width="20" customWidth="1"/>
-    <col min="7946" max="7946" width="38.140625" customWidth="1"/>
-    <col min="7947" max="7948" width="10.42578125" customWidth="1"/>
-    <col min="8195" max="8195" width="3.7109375" customWidth="1"/>
-    <col min="8196" max="8196" width="22.85546875" customWidth="1"/>
-    <col min="8197" max="8199" width="5.85546875" customWidth="1"/>
-    <col min="8200" max="8200" width="8" customWidth="1"/>
-    <col min="8201" max="8201" width="20" customWidth="1"/>
-    <col min="8202" max="8202" width="38.140625" customWidth="1"/>
-    <col min="8203" max="8204" width="10.42578125" customWidth="1"/>
-    <col min="8451" max="8451" width="3.7109375" customWidth="1"/>
-    <col min="8452" max="8452" width="22.85546875" customWidth="1"/>
-    <col min="8453" max="8455" width="5.85546875" customWidth="1"/>
-    <col min="8456" max="8456" width="8" customWidth="1"/>
-    <col min="8457" max="8457" width="20" customWidth="1"/>
-    <col min="8458" max="8458" width="38.140625" customWidth="1"/>
-    <col min="8459" max="8460" width="10.42578125" customWidth="1"/>
-    <col min="8707" max="8707" width="3.7109375" customWidth="1"/>
-    <col min="8708" max="8708" width="22.85546875" customWidth="1"/>
-    <col min="8709" max="8711" width="5.85546875" customWidth="1"/>
-    <col min="8712" max="8712" width="8" customWidth="1"/>
-    <col min="8713" max="8713" width="20" customWidth="1"/>
-    <col min="8714" max="8714" width="38.140625" customWidth="1"/>
-    <col min="8715" max="8716" width="10.42578125" customWidth="1"/>
-    <col min="8963" max="8963" width="3.7109375" customWidth="1"/>
-    <col min="8964" max="8964" width="22.85546875" customWidth="1"/>
-    <col min="8965" max="8967" width="5.85546875" customWidth="1"/>
-    <col min="8968" max="8968" width="8" customWidth="1"/>
-    <col min="8969" max="8969" width="20" customWidth="1"/>
-    <col min="8970" max="8970" width="38.140625" customWidth="1"/>
-    <col min="8971" max="8972" width="10.42578125" customWidth="1"/>
-    <col min="9219" max="9219" width="3.7109375" customWidth="1"/>
-    <col min="9220" max="9220" width="22.85546875" customWidth="1"/>
-    <col min="9221" max="9223" width="5.85546875" customWidth="1"/>
-    <col min="9224" max="9224" width="8" customWidth="1"/>
-    <col min="9225" max="9225" width="20" customWidth="1"/>
-    <col min="9226" max="9226" width="38.140625" customWidth="1"/>
-    <col min="9227" max="9228" width="10.42578125" customWidth="1"/>
-    <col min="9475" max="9475" width="3.7109375" customWidth="1"/>
-    <col min="9476" max="9476" width="22.85546875" customWidth="1"/>
-    <col min="9477" max="9479" width="5.85546875" customWidth="1"/>
-    <col min="9480" max="9480" width="8" customWidth="1"/>
-    <col min="9481" max="9481" width="20" customWidth="1"/>
-    <col min="9482" max="9482" width="38.140625" customWidth="1"/>
-    <col min="9483" max="9484" width="10.42578125" customWidth="1"/>
-    <col min="9731" max="9731" width="3.7109375" customWidth="1"/>
-    <col min="9732" max="9732" width="22.85546875" customWidth="1"/>
-    <col min="9733" max="9735" width="5.85546875" customWidth="1"/>
-    <col min="9736" max="9736" width="8" customWidth="1"/>
-    <col min="9737" max="9737" width="20" customWidth="1"/>
-    <col min="9738" max="9738" width="38.140625" customWidth="1"/>
-    <col min="9739" max="9740" width="10.42578125" customWidth="1"/>
-    <col min="9987" max="9987" width="3.7109375" customWidth="1"/>
-    <col min="9988" max="9988" width="22.85546875" customWidth="1"/>
-    <col min="9989" max="9991" width="5.85546875" customWidth="1"/>
-    <col min="9992" max="9992" width="8" customWidth="1"/>
-    <col min="9993" max="9993" width="20" customWidth="1"/>
-    <col min="9994" max="9994" width="38.140625" customWidth="1"/>
-    <col min="9995" max="9996" width="10.42578125" customWidth="1"/>
-    <col min="10243" max="10243" width="3.7109375" customWidth="1"/>
-    <col min="10244" max="10244" width="22.85546875" customWidth="1"/>
-    <col min="10245" max="10247" width="5.85546875" customWidth="1"/>
-    <col min="10248" max="10248" width="8" customWidth="1"/>
-    <col min="10249" max="10249" width="20" customWidth="1"/>
-    <col min="10250" max="10250" width="38.140625" customWidth="1"/>
-    <col min="10251" max="10252" width="10.42578125" customWidth="1"/>
-    <col min="10499" max="10499" width="3.7109375" customWidth="1"/>
-    <col min="10500" max="10500" width="22.85546875" customWidth="1"/>
-    <col min="10501" max="10503" width="5.85546875" customWidth="1"/>
-    <col min="10504" max="10504" width="8" customWidth="1"/>
-    <col min="10505" max="10505" width="20" customWidth="1"/>
-    <col min="10506" max="10506" width="38.140625" customWidth="1"/>
-    <col min="10507" max="10508" width="10.42578125" customWidth="1"/>
-    <col min="10755" max="10755" width="3.7109375" customWidth="1"/>
-    <col min="10756" max="10756" width="22.85546875" customWidth="1"/>
-    <col min="10757" max="10759" width="5.85546875" customWidth="1"/>
-    <col min="10760" max="10760" width="8" customWidth="1"/>
-    <col min="10761" max="10761" width="20" customWidth="1"/>
-    <col min="10762" max="10762" width="38.140625" customWidth="1"/>
-    <col min="10763" max="10764" width="10.42578125" customWidth="1"/>
-    <col min="11011" max="11011" width="3.7109375" customWidth="1"/>
-    <col min="11012" max="11012" width="22.85546875" customWidth="1"/>
-    <col min="11013" max="11015" width="5.85546875" customWidth="1"/>
-    <col min="11016" max="11016" width="8" customWidth="1"/>
-    <col min="11017" max="11017" width="20" customWidth="1"/>
-    <col min="11018" max="11018" width="38.140625" customWidth="1"/>
-    <col min="11019" max="11020" width="10.42578125" customWidth="1"/>
-    <col min="11267" max="11267" width="3.7109375" customWidth="1"/>
-    <col min="11268" max="11268" width="22.85546875" customWidth="1"/>
-    <col min="11269" max="11271" width="5.85546875" customWidth="1"/>
-    <col min="11272" max="11272" width="8" customWidth="1"/>
-    <col min="11273" max="11273" width="20" customWidth="1"/>
-    <col min="11274" max="11274" width="38.140625" customWidth="1"/>
-    <col min="11275" max="11276" width="10.42578125" customWidth="1"/>
-    <col min="11523" max="11523" width="3.7109375" customWidth="1"/>
-    <col min="11524" max="11524" width="22.85546875" customWidth="1"/>
-    <col min="11525" max="11527" width="5.85546875" customWidth="1"/>
-    <col min="11528" max="11528" width="8" customWidth="1"/>
-    <col min="11529" max="11529" width="20" customWidth="1"/>
-    <col min="11530" max="11530" width="38.140625" customWidth="1"/>
-    <col min="11531" max="11532" width="10.42578125" customWidth="1"/>
-    <col min="11779" max="11779" width="3.7109375" customWidth="1"/>
-    <col min="11780" max="11780" width="22.85546875" customWidth="1"/>
-    <col min="11781" max="11783" width="5.85546875" customWidth="1"/>
-    <col min="11784" max="11784" width="8" customWidth="1"/>
-    <col min="11785" max="11785" width="20" customWidth="1"/>
-    <col min="11786" max="11786" width="38.140625" customWidth="1"/>
-    <col min="11787" max="11788" width="10.42578125" customWidth="1"/>
-    <col min="12035" max="12035" width="3.7109375" customWidth="1"/>
-    <col min="12036" max="12036" width="22.85546875" customWidth="1"/>
-    <col min="12037" max="12039" width="5.85546875" customWidth="1"/>
-    <col min="12040" max="12040" width="8" customWidth="1"/>
-    <col min="12041" max="12041" width="20" customWidth="1"/>
-    <col min="12042" max="12042" width="38.140625" customWidth="1"/>
-    <col min="12043" max="12044" width="10.42578125" customWidth="1"/>
-    <col min="12291" max="12291" width="3.7109375" customWidth="1"/>
-    <col min="12292" max="12292" width="22.85546875" customWidth="1"/>
-    <col min="12293" max="12295" width="5.85546875" customWidth="1"/>
-    <col min="12296" max="12296" width="8" customWidth="1"/>
-    <col min="12297" max="12297" width="20" customWidth="1"/>
-    <col min="12298" max="12298" width="38.140625" customWidth="1"/>
-    <col min="12299" max="12300" width="10.42578125" customWidth="1"/>
-    <col min="12547" max="12547" width="3.7109375" customWidth="1"/>
-    <col min="12548" max="12548" width="22.85546875" customWidth="1"/>
-    <col min="12549" max="12551" width="5.85546875" customWidth="1"/>
-    <col min="12552" max="12552" width="8" customWidth="1"/>
-    <col min="12553" max="12553" width="20" customWidth="1"/>
-    <col min="12554" max="12554" width="38.140625" customWidth="1"/>
-    <col min="12555" max="12556" width="10.42578125" customWidth="1"/>
-    <col min="12803" max="12803" width="3.7109375" customWidth="1"/>
-    <col min="12804" max="12804" width="22.85546875" customWidth="1"/>
-    <col min="12805" max="12807" width="5.85546875" customWidth="1"/>
-    <col min="12808" max="12808" width="8" customWidth="1"/>
-    <col min="12809" max="12809" width="20" customWidth="1"/>
-    <col min="12810" max="12810" width="38.140625" customWidth="1"/>
-    <col min="12811" max="12812" width="10.42578125" customWidth="1"/>
-    <col min="13059" max="13059" width="3.7109375" customWidth="1"/>
-    <col min="13060" max="13060" width="22.85546875" customWidth="1"/>
-    <col min="13061" max="13063" width="5.85546875" customWidth="1"/>
-    <col min="13064" max="13064" width="8" customWidth="1"/>
-    <col min="13065" max="13065" width="20" customWidth="1"/>
-    <col min="13066" max="13066" width="38.140625" customWidth="1"/>
-    <col min="13067" max="13068" width="10.42578125" customWidth="1"/>
-    <col min="13315" max="13315" width="3.7109375" customWidth="1"/>
-    <col min="13316" max="13316" width="22.85546875" customWidth="1"/>
-    <col min="13317" max="13319" width="5.85546875" customWidth="1"/>
-    <col min="13320" max="13320" width="8" customWidth="1"/>
-    <col min="13321" max="13321" width="20" customWidth="1"/>
-    <col min="13322" max="13322" width="38.140625" customWidth="1"/>
-    <col min="13323" max="13324" width="10.42578125" customWidth="1"/>
-    <col min="13571" max="13571" width="3.7109375" customWidth="1"/>
-    <col min="13572" max="13572" width="22.85546875" customWidth="1"/>
-    <col min="13573" max="13575" width="5.85546875" customWidth="1"/>
-    <col min="13576" max="13576" width="8" customWidth="1"/>
-    <col min="13577" max="13577" width="20" customWidth="1"/>
-    <col min="13578" max="13578" width="38.140625" customWidth="1"/>
-    <col min="13579" max="13580" width="10.42578125" customWidth="1"/>
-    <col min="13827" max="13827" width="3.7109375" customWidth="1"/>
-    <col min="13828" max="13828" width="22.85546875" customWidth="1"/>
-    <col min="13829" max="13831" width="5.85546875" customWidth="1"/>
-    <col min="13832" max="13832" width="8" customWidth="1"/>
-    <col min="13833" max="13833" width="20" customWidth="1"/>
-    <col min="13834" max="13834" width="38.140625" customWidth="1"/>
-    <col min="13835" max="13836" width="10.42578125" customWidth="1"/>
-    <col min="14083" max="14083" width="3.7109375" customWidth="1"/>
-    <col min="14084" max="14084" width="22.85546875" customWidth="1"/>
-    <col min="14085" max="14087" width="5.85546875" customWidth="1"/>
-    <col min="14088" max="14088" width="8" customWidth="1"/>
-    <col min="14089" max="14089" width="20" customWidth="1"/>
-    <col min="14090" max="14090" width="38.140625" customWidth="1"/>
-    <col min="14091" max="14092" width="10.42578125" customWidth="1"/>
-    <col min="14339" max="14339" width="3.7109375" customWidth="1"/>
-    <col min="14340" max="14340" width="22.85546875" customWidth="1"/>
-    <col min="14341" max="14343" width="5.85546875" customWidth="1"/>
-    <col min="14344" max="14344" width="8" customWidth="1"/>
-    <col min="14345" max="14345" width="20" customWidth="1"/>
-    <col min="14346" max="14346" width="38.140625" customWidth="1"/>
-    <col min="14347" max="14348" width="10.42578125" customWidth="1"/>
-    <col min="14595" max="14595" width="3.7109375" customWidth="1"/>
-    <col min="14596" max="14596" width="22.85546875" customWidth="1"/>
-    <col min="14597" max="14599" width="5.85546875" customWidth="1"/>
-    <col min="14600" max="14600" width="8" customWidth="1"/>
-    <col min="14601" max="14601" width="20" customWidth="1"/>
-    <col min="14602" max="14602" width="38.140625" customWidth="1"/>
-    <col min="14603" max="14604" width="10.42578125" customWidth="1"/>
-    <col min="14851" max="14851" width="3.7109375" customWidth="1"/>
-    <col min="14852" max="14852" width="22.85546875" customWidth="1"/>
-    <col min="14853" max="14855" width="5.85546875" customWidth="1"/>
-    <col min="14856" max="14856" width="8" customWidth="1"/>
-    <col min="14857" max="14857" width="20" customWidth="1"/>
-    <col min="14858" max="14858" width="38.140625" customWidth="1"/>
-    <col min="14859" max="14860" width="10.42578125" customWidth="1"/>
-    <col min="15107" max="15107" width="3.7109375" customWidth="1"/>
-    <col min="15108" max="15108" width="22.85546875" customWidth="1"/>
-    <col min="15109" max="15111" width="5.85546875" customWidth="1"/>
-    <col min="15112" max="15112" width="8" customWidth="1"/>
-    <col min="15113" max="15113" width="20" customWidth="1"/>
-    <col min="15114" max="15114" width="38.140625" customWidth="1"/>
-    <col min="15115" max="15116" width="10.42578125" customWidth="1"/>
-    <col min="15363" max="15363" width="3.7109375" customWidth="1"/>
-    <col min="15364" max="15364" width="22.85546875" customWidth="1"/>
-    <col min="15365" max="15367" width="5.85546875" customWidth="1"/>
-    <col min="15368" max="15368" width="8" customWidth="1"/>
-    <col min="15369" max="15369" width="20" customWidth="1"/>
-    <col min="15370" max="15370" width="38.140625" customWidth="1"/>
-    <col min="15371" max="15372" width="10.42578125" customWidth="1"/>
-    <col min="15619" max="15619" width="3.7109375" customWidth="1"/>
-    <col min="15620" max="15620" width="22.85546875" customWidth="1"/>
-    <col min="15621" max="15623" width="5.85546875" customWidth="1"/>
-    <col min="15624" max="15624" width="8" customWidth="1"/>
-    <col min="15625" max="15625" width="20" customWidth="1"/>
-    <col min="15626" max="15626" width="38.140625" customWidth="1"/>
-    <col min="15627" max="15628" width="10.42578125" customWidth="1"/>
-    <col min="15875" max="15875" width="3.7109375" customWidth="1"/>
-    <col min="15876" max="15876" width="22.85546875" customWidth="1"/>
-    <col min="15877" max="15879" width="5.85546875" customWidth="1"/>
-    <col min="15880" max="15880" width="8" customWidth="1"/>
-    <col min="15881" max="15881" width="20" customWidth="1"/>
-    <col min="15882" max="15882" width="38.140625" customWidth="1"/>
-    <col min="15883" max="15884" width="10.42578125" customWidth="1"/>
-    <col min="16131" max="16131" width="3.7109375" customWidth="1"/>
-    <col min="16132" max="16132" width="22.85546875" customWidth="1"/>
-    <col min="16133" max="16135" width="5.85546875" customWidth="1"/>
-    <col min="16136" max="16136" width="8" customWidth="1"/>
-    <col min="16137" max="16137" width="20" customWidth="1"/>
-    <col min="16138" max="16138" width="38.140625" customWidth="1"/>
-    <col min="16139" max="16140" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="47" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="47" customWidth="1"/>
+    <col min="10" max="10" width="15" style="47" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" customWidth="1"/>
+    <col min="27" max="27" width="10.7109375" customWidth="1"/>
+    <col min="28" max="28" width="40.85546875" style="32" customWidth="1"/>
+    <col min="260" max="260" width="3.7109375" customWidth="1"/>
+    <col min="261" max="261" width="22.85546875" customWidth="1"/>
+    <col min="262" max="264" width="5.85546875" customWidth="1"/>
+    <col min="265" max="265" width="8" customWidth="1"/>
+    <col min="266" max="266" width="20" customWidth="1"/>
+    <col min="267" max="267" width="38.140625" customWidth="1"/>
+    <col min="268" max="269" width="10.42578125" customWidth="1"/>
+    <col min="516" max="516" width="3.7109375" customWidth="1"/>
+    <col min="517" max="517" width="22.85546875" customWidth="1"/>
+    <col min="518" max="520" width="5.85546875" customWidth="1"/>
+    <col min="521" max="521" width="8" customWidth="1"/>
+    <col min="522" max="522" width="20" customWidth="1"/>
+    <col min="523" max="523" width="38.140625" customWidth="1"/>
+    <col min="524" max="525" width="10.42578125" customWidth="1"/>
+    <col min="772" max="772" width="3.7109375" customWidth="1"/>
+    <col min="773" max="773" width="22.85546875" customWidth="1"/>
+    <col min="774" max="776" width="5.85546875" customWidth="1"/>
+    <col min="777" max="777" width="8" customWidth="1"/>
+    <col min="778" max="778" width="20" customWidth="1"/>
+    <col min="779" max="779" width="38.140625" customWidth="1"/>
+    <col min="780" max="781" width="10.42578125" customWidth="1"/>
+    <col min="1028" max="1028" width="3.7109375" customWidth="1"/>
+    <col min="1029" max="1029" width="22.85546875" customWidth="1"/>
+    <col min="1030" max="1032" width="5.85546875" customWidth="1"/>
+    <col min="1033" max="1033" width="8" customWidth="1"/>
+    <col min="1034" max="1034" width="20" customWidth="1"/>
+    <col min="1035" max="1035" width="38.140625" customWidth="1"/>
+    <col min="1036" max="1037" width="10.42578125" customWidth="1"/>
+    <col min="1284" max="1284" width="3.7109375" customWidth="1"/>
+    <col min="1285" max="1285" width="22.85546875" customWidth="1"/>
+    <col min="1286" max="1288" width="5.85546875" customWidth="1"/>
+    <col min="1289" max="1289" width="8" customWidth="1"/>
+    <col min="1290" max="1290" width="20" customWidth="1"/>
+    <col min="1291" max="1291" width="38.140625" customWidth="1"/>
+    <col min="1292" max="1293" width="10.42578125" customWidth="1"/>
+    <col min="1540" max="1540" width="3.7109375" customWidth="1"/>
+    <col min="1541" max="1541" width="22.85546875" customWidth="1"/>
+    <col min="1542" max="1544" width="5.85546875" customWidth="1"/>
+    <col min="1545" max="1545" width="8" customWidth="1"/>
+    <col min="1546" max="1546" width="20" customWidth="1"/>
+    <col min="1547" max="1547" width="38.140625" customWidth="1"/>
+    <col min="1548" max="1549" width="10.42578125" customWidth="1"/>
+    <col min="1796" max="1796" width="3.7109375" customWidth="1"/>
+    <col min="1797" max="1797" width="22.85546875" customWidth="1"/>
+    <col min="1798" max="1800" width="5.85546875" customWidth="1"/>
+    <col min="1801" max="1801" width="8" customWidth="1"/>
+    <col min="1802" max="1802" width="20" customWidth="1"/>
+    <col min="1803" max="1803" width="38.140625" customWidth="1"/>
+    <col min="1804" max="1805" width="10.42578125" customWidth="1"/>
+    <col min="2052" max="2052" width="3.7109375" customWidth="1"/>
+    <col min="2053" max="2053" width="22.85546875" customWidth="1"/>
+    <col min="2054" max="2056" width="5.85546875" customWidth="1"/>
+    <col min="2057" max="2057" width="8" customWidth="1"/>
+    <col min="2058" max="2058" width="20" customWidth="1"/>
+    <col min="2059" max="2059" width="38.140625" customWidth="1"/>
+    <col min="2060" max="2061" width="10.42578125" customWidth="1"/>
+    <col min="2308" max="2308" width="3.7109375" customWidth="1"/>
+    <col min="2309" max="2309" width="22.85546875" customWidth="1"/>
+    <col min="2310" max="2312" width="5.85546875" customWidth="1"/>
+    <col min="2313" max="2313" width="8" customWidth="1"/>
+    <col min="2314" max="2314" width="20" customWidth="1"/>
+    <col min="2315" max="2315" width="38.140625" customWidth="1"/>
+    <col min="2316" max="2317" width="10.42578125" customWidth="1"/>
+    <col min="2564" max="2564" width="3.7109375" customWidth="1"/>
+    <col min="2565" max="2565" width="22.85546875" customWidth="1"/>
+    <col min="2566" max="2568" width="5.85546875" customWidth="1"/>
+    <col min="2569" max="2569" width="8" customWidth="1"/>
+    <col min="2570" max="2570" width="20" customWidth="1"/>
+    <col min="2571" max="2571" width="38.140625" customWidth="1"/>
+    <col min="2572" max="2573" width="10.42578125" customWidth="1"/>
+    <col min="2820" max="2820" width="3.7109375" customWidth="1"/>
+    <col min="2821" max="2821" width="22.85546875" customWidth="1"/>
+    <col min="2822" max="2824" width="5.85546875" customWidth="1"/>
+    <col min="2825" max="2825" width="8" customWidth="1"/>
+    <col min="2826" max="2826" width="20" customWidth="1"/>
+    <col min="2827" max="2827" width="38.140625" customWidth="1"/>
+    <col min="2828" max="2829" width="10.42578125" customWidth="1"/>
+    <col min="3076" max="3076" width="3.7109375" customWidth="1"/>
+    <col min="3077" max="3077" width="22.85546875" customWidth="1"/>
+    <col min="3078" max="3080" width="5.85546875" customWidth="1"/>
+    <col min="3081" max="3081" width="8" customWidth="1"/>
+    <col min="3082" max="3082" width="20" customWidth="1"/>
+    <col min="3083" max="3083" width="38.140625" customWidth="1"/>
+    <col min="3084" max="3085" width="10.42578125" customWidth="1"/>
+    <col min="3332" max="3332" width="3.7109375" customWidth="1"/>
+    <col min="3333" max="3333" width="22.85546875" customWidth="1"/>
+    <col min="3334" max="3336" width="5.85546875" customWidth="1"/>
+    <col min="3337" max="3337" width="8" customWidth="1"/>
+    <col min="3338" max="3338" width="20" customWidth="1"/>
+    <col min="3339" max="3339" width="38.140625" customWidth="1"/>
+    <col min="3340" max="3341" width="10.42578125" customWidth="1"/>
+    <col min="3588" max="3588" width="3.7109375" customWidth="1"/>
+    <col min="3589" max="3589" width="22.85546875" customWidth="1"/>
+    <col min="3590" max="3592" width="5.85546875" customWidth="1"/>
+    <col min="3593" max="3593" width="8" customWidth="1"/>
+    <col min="3594" max="3594" width="20" customWidth="1"/>
+    <col min="3595" max="3595" width="38.140625" customWidth="1"/>
+    <col min="3596" max="3597" width="10.42578125" customWidth="1"/>
+    <col min="3844" max="3844" width="3.7109375" customWidth="1"/>
+    <col min="3845" max="3845" width="22.85546875" customWidth="1"/>
+    <col min="3846" max="3848" width="5.85546875" customWidth="1"/>
+    <col min="3849" max="3849" width="8" customWidth="1"/>
+    <col min="3850" max="3850" width="20" customWidth="1"/>
+    <col min="3851" max="3851" width="38.140625" customWidth="1"/>
+    <col min="3852" max="3853" width="10.42578125" customWidth="1"/>
+    <col min="4100" max="4100" width="3.7109375" customWidth="1"/>
+    <col min="4101" max="4101" width="22.85546875" customWidth="1"/>
+    <col min="4102" max="4104" width="5.85546875" customWidth="1"/>
+    <col min="4105" max="4105" width="8" customWidth="1"/>
+    <col min="4106" max="4106" width="20" customWidth="1"/>
+    <col min="4107" max="4107" width="38.140625" customWidth="1"/>
+    <col min="4108" max="4109" width="10.42578125" customWidth="1"/>
+    <col min="4356" max="4356" width="3.7109375" customWidth="1"/>
+    <col min="4357" max="4357" width="22.85546875" customWidth="1"/>
+    <col min="4358" max="4360" width="5.85546875" customWidth="1"/>
+    <col min="4361" max="4361" width="8" customWidth="1"/>
+    <col min="4362" max="4362" width="20" customWidth="1"/>
+    <col min="4363" max="4363" width="38.140625" customWidth="1"/>
+    <col min="4364" max="4365" width="10.42578125" customWidth="1"/>
+    <col min="4612" max="4612" width="3.7109375" customWidth="1"/>
+    <col min="4613" max="4613" width="22.85546875" customWidth="1"/>
+    <col min="4614" max="4616" width="5.85546875" customWidth="1"/>
+    <col min="4617" max="4617" width="8" customWidth="1"/>
+    <col min="4618" max="4618" width="20" customWidth="1"/>
+    <col min="4619" max="4619" width="38.140625" customWidth="1"/>
+    <col min="4620" max="4621" width="10.42578125" customWidth="1"/>
+    <col min="4868" max="4868" width="3.7109375" customWidth="1"/>
+    <col min="4869" max="4869" width="22.85546875" customWidth="1"/>
+    <col min="4870" max="4872" width="5.85546875" customWidth="1"/>
+    <col min="4873" max="4873" width="8" customWidth="1"/>
+    <col min="4874" max="4874" width="20" customWidth="1"/>
+    <col min="4875" max="4875" width="38.140625" customWidth="1"/>
+    <col min="4876" max="4877" width="10.42578125" customWidth="1"/>
+    <col min="5124" max="5124" width="3.7109375" customWidth="1"/>
+    <col min="5125" max="5125" width="22.85546875" customWidth="1"/>
+    <col min="5126" max="5128" width="5.85546875" customWidth="1"/>
+    <col min="5129" max="5129" width="8" customWidth="1"/>
+    <col min="5130" max="5130" width="20" customWidth="1"/>
+    <col min="5131" max="5131" width="38.140625" customWidth="1"/>
+    <col min="5132" max="5133" width="10.42578125" customWidth="1"/>
+    <col min="5380" max="5380" width="3.7109375" customWidth="1"/>
+    <col min="5381" max="5381" width="22.85546875" customWidth="1"/>
+    <col min="5382" max="5384" width="5.85546875" customWidth="1"/>
+    <col min="5385" max="5385" width="8" customWidth="1"/>
+    <col min="5386" max="5386" width="20" customWidth="1"/>
+    <col min="5387" max="5387" width="38.140625" customWidth="1"/>
+    <col min="5388" max="5389" width="10.42578125" customWidth="1"/>
+    <col min="5636" max="5636" width="3.7109375" customWidth="1"/>
+    <col min="5637" max="5637" width="22.85546875" customWidth="1"/>
+    <col min="5638" max="5640" width="5.85546875" customWidth="1"/>
+    <col min="5641" max="5641" width="8" customWidth="1"/>
+    <col min="5642" max="5642" width="20" customWidth="1"/>
+    <col min="5643" max="5643" width="38.140625" customWidth="1"/>
+    <col min="5644" max="5645" width="10.42578125" customWidth="1"/>
+    <col min="5892" max="5892" width="3.7109375" customWidth="1"/>
+    <col min="5893" max="5893" width="22.85546875" customWidth="1"/>
+    <col min="5894" max="5896" width="5.85546875" customWidth="1"/>
+    <col min="5897" max="5897" width="8" customWidth="1"/>
+    <col min="5898" max="5898" width="20" customWidth="1"/>
+    <col min="5899" max="5899" width="38.140625" customWidth="1"/>
+    <col min="5900" max="5901" width="10.42578125" customWidth="1"/>
+    <col min="6148" max="6148" width="3.7109375" customWidth="1"/>
+    <col min="6149" max="6149" width="22.85546875" customWidth="1"/>
+    <col min="6150" max="6152" width="5.85546875" customWidth="1"/>
+    <col min="6153" max="6153" width="8" customWidth="1"/>
+    <col min="6154" max="6154" width="20" customWidth="1"/>
+    <col min="6155" max="6155" width="38.140625" customWidth="1"/>
+    <col min="6156" max="6157" width="10.42578125" customWidth="1"/>
+    <col min="6404" max="6404" width="3.7109375" customWidth="1"/>
+    <col min="6405" max="6405" width="22.85546875" customWidth="1"/>
+    <col min="6406" max="6408" width="5.85546875" customWidth="1"/>
+    <col min="6409" max="6409" width="8" customWidth="1"/>
+    <col min="6410" max="6410" width="20" customWidth="1"/>
+    <col min="6411" max="6411" width="38.140625" customWidth="1"/>
+    <col min="6412" max="6413" width="10.42578125" customWidth="1"/>
+    <col min="6660" max="6660" width="3.7109375" customWidth="1"/>
+    <col min="6661" max="6661" width="22.85546875" customWidth="1"/>
+    <col min="6662" max="6664" width="5.85546875" customWidth="1"/>
+    <col min="6665" max="6665" width="8" customWidth="1"/>
+    <col min="6666" max="6666" width="20" customWidth="1"/>
+    <col min="6667" max="6667" width="38.140625" customWidth="1"/>
+    <col min="6668" max="6669" width="10.42578125" customWidth="1"/>
+    <col min="6916" max="6916" width="3.7109375" customWidth="1"/>
+    <col min="6917" max="6917" width="22.85546875" customWidth="1"/>
+    <col min="6918" max="6920" width="5.85546875" customWidth="1"/>
+    <col min="6921" max="6921" width="8" customWidth="1"/>
+    <col min="6922" max="6922" width="20" customWidth="1"/>
+    <col min="6923" max="6923" width="38.140625" customWidth="1"/>
+    <col min="6924" max="6925" width="10.42578125" customWidth="1"/>
+    <col min="7172" max="7172" width="3.7109375" customWidth="1"/>
+    <col min="7173" max="7173" width="22.85546875" customWidth="1"/>
+    <col min="7174" max="7176" width="5.85546875" customWidth="1"/>
+    <col min="7177" max="7177" width="8" customWidth="1"/>
+    <col min="7178" max="7178" width="20" customWidth="1"/>
+    <col min="7179" max="7179" width="38.140625" customWidth="1"/>
+    <col min="7180" max="7181" width="10.42578125" customWidth="1"/>
+    <col min="7428" max="7428" width="3.7109375" customWidth="1"/>
+    <col min="7429" max="7429" width="22.85546875" customWidth="1"/>
+    <col min="7430" max="7432" width="5.85546875" customWidth="1"/>
+    <col min="7433" max="7433" width="8" customWidth="1"/>
+    <col min="7434" max="7434" width="20" customWidth="1"/>
+    <col min="7435" max="7435" width="38.140625" customWidth="1"/>
+    <col min="7436" max="7437" width="10.42578125" customWidth="1"/>
+    <col min="7684" max="7684" width="3.7109375" customWidth="1"/>
+    <col min="7685" max="7685" width="22.85546875" customWidth="1"/>
+    <col min="7686" max="7688" width="5.85546875" customWidth="1"/>
+    <col min="7689" max="7689" width="8" customWidth="1"/>
+    <col min="7690" max="7690" width="20" customWidth="1"/>
+    <col min="7691" max="7691" width="38.140625" customWidth="1"/>
+    <col min="7692" max="7693" width="10.42578125" customWidth="1"/>
+    <col min="7940" max="7940" width="3.7109375" customWidth="1"/>
+    <col min="7941" max="7941" width="22.85546875" customWidth="1"/>
+    <col min="7942" max="7944" width="5.85546875" customWidth="1"/>
+    <col min="7945" max="7945" width="8" customWidth="1"/>
+    <col min="7946" max="7946" width="20" customWidth="1"/>
+    <col min="7947" max="7947" width="38.140625" customWidth="1"/>
+    <col min="7948" max="7949" width="10.42578125" customWidth="1"/>
+    <col min="8196" max="8196" width="3.7109375" customWidth="1"/>
+    <col min="8197" max="8197" width="22.85546875" customWidth="1"/>
+    <col min="8198" max="8200" width="5.85546875" customWidth="1"/>
+    <col min="8201" max="8201" width="8" customWidth="1"/>
+    <col min="8202" max="8202" width="20" customWidth="1"/>
+    <col min="8203" max="8203" width="38.140625" customWidth="1"/>
+    <col min="8204" max="8205" width="10.42578125" customWidth="1"/>
+    <col min="8452" max="8452" width="3.7109375" customWidth="1"/>
+    <col min="8453" max="8453" width="22.85546875" customWidth="1"/>
+    <col min="8454" max="8456" width="5.85546875" customWidth="1"/>
+    <col min="8457" max="8457" width="8" customWidth="1"/>
+    <col min="8458" max="8458" width="20" customWidth="1"/>
+    <col min="8459" max="8459" width="38.140625" customWidth="1"/>
+    <col min="8460" max="8461" width="10.42578125" customWidth="1"/>
+    <col min="8708" max="8708" width="3.7109375" customWidth="1"/>
+    <col min="8709" max="8709" width="22.85546875" customWidth="1"/>
+    <col min="8710" max="8712" width="5.85546875" customWidth="1"/>
+    <col min="8713" max="8713" width="8" customWidth="1"/>
+    <col min="8714" max="8714" width="20" customWidth="1"/>
+    <col min="8715" max="8715" width="38.140625" customWidth="1"/>
+    <col min="8716" max="8717" width="10.42578125" customWidth="1"/>
+    <col min="8964" max="8964" width="3.7109375" customWidth="1"/>
+    <col min="8965" max="8965" width="22.85546875" customWidth="1"/>
+    <col min="8966" max="8968" width="5.85546875" customWidth="1"/>
+    <col min="8969" max="8969" width="8" customWidth="1"/>
+    <col min="8970" max="8970" width="20" customWidth="1"/>
+    <col min="8971" max="8971" width="38.140625" customWidth="1"/>
+    <col min="8972" max="8973" width="10.42578125" customWidth="1"/>
+    <col min="9220" max="9220" width="3.7109375" customWidth="1"/>
+    <col min="9221" max="9221" width="22.85546875" customWidth="1"/>
+    <col min="9222" max="9224" width="5.85546875" customWidth="1"/>
+    <col min="9225" max="9225" width="8" customWidth="1"/>
+    <col min="9226" max="9226" width="20" customWidth="1"/>
+    <col min="9227" max="9227" width="38.140625" customWidth="1"/>
+    <col min="9228" max="9229" width="10.42578125" customWidth="1"/>
+    <col min="9476" max="9476" width="3.7109375" customWidth="1"/>
+    <col min="9477" max="9477" width="22.85546875" customWidth="1"/>
+    <col min="9478" max="9480" width="5.85546875" customWidth="1"/>
+    <col min="9481" max="9481" width="8" customWidth="1"/>
+    <col min="9482" max="9482" width="20" customWidth="1"/>
+    <col min="9483" max="9483" width="38.140625" customWidth="1"/>
+    <col min="9484" max="9485" width="10.42578125" customWidth="1"/>
+    <col min="9732" max="9732" width="3.7109375" customWidth="1"/>
+    <col min="9733" max="9733" width="22.85546875" customWidth="1"/>
+    <col min="9734" max="9736" width="5.85546875" customWidth="1"/>
+    <col min="9737" max="9737" width="8" customWidth="1"/>
+    <col min="9738" max="9738" width="20" customWidth="1"/>
+    <col min="9739" max="9739" width="38.140625" customWidth="1"/>
+    <col min="9740" max="9741" width="10.42578125" customWidth="1"/>
+    <col min="9988" max="9988" width="3.7109375" customWidth="1"/>
+    <col min="9989" max="9989" width="22.85546875" customWidth="1"/>
+    <col min="9990" max="9992" width="5.85546875" customWidth="1"/>
+    <col min="9993" max="9993" width="8" customWidth="1"/>
+    <col min="9994" max="9994" width="20" customWidth="1"/>
+    <col min="9995" max="9995" width="38.140625" customWidth="1"/>
+    <col min="9996" max="9997" width="10.42578125" customWidth="1"/>
+    <col min="10244" max="10244" width="3.7109375" customWidth="1"/>
+    <col min="10245" max="10245" width="22.85546875" customWidth="1"/>
+    <col min="10246" max="10248" width="5.85546875" customWidth="1"/>
+    <col min="10249" max="10249" width="8" customWidth="1"/>
+    <col min="10250" max="10250" width="20" customWidth="1"/>
+    <col min="10251" max="10251" width="38.140625" customWidth="1"/>
+    <col min="10252" max="10253" width="10.42578125" customWidth="1"/>
+    <col min="10500" max="10500" width="3.7109375" customWidth="1"/>
+    <col min="10501" max="10501" width="22.85546875" customWidth="1"/>
+    <col min="10502" max="10504" width="5.85546875" customWidth="1"/>
+    <col min="10505" max="10505" width="8" customWidth="1"/>
+    <col min="10506" max="10506" width="20" customWidth="1"/>
+    <col min="10507" max="10507" width="38.140625" customWidth="1"/>
+    <col min="10508" max="10509" width="10.42578125" customWidth="1"/>
+    <col min="10756" max="10756" width="3.7109375" customWidth="1"/>
+    <col min="10757" max="10757" width="22.85546875" customWidth="1"/>
+    <col min="10758" max="10760" width="5.85546875" customWidth="1"/>
+    <col min="10761" max="10761" width="8" customWidth="1"/>
+    <col min="10762" max="10762" width="20" customWidth="1"/>
+    <col min="10763" max="10763" width="38.140625" customWidth="1"/>
+    <col min="10764" max="10765" width="10.42578125" customWidth="1"/>
+    <col min="11012" max="11012" width="3.7109375" customWidth="1"/>
+    <col min="11013" max="11013" width="22.85546875" customWidth="1"/>
+    <col min="11014" max="11016" width="5.85546875" customWidth="1"/>
+    <col min="11017" max="11017" width="8" customWidth="1"/>
+    <col min="11018" max="11018" width="20" customWidth="1"/>
+    <col min="11019" max="11019" width="38.140625" customWidth="1"/>
+    <col min="11020" max="11021" width="10.42578125" customWidth="1"/>
+    <col min="11268" max="11268" width="3.7109375" customWidth="1"/>
+    <col min="11269" max="11269" width="22.85546875" customWidth="1"/>
+    <col min="11270" max="11272" width="5.85546875" customWidth="1"/>
+    <col min="11273" max="11273" width="8" customWidth="1"/>
+    <col min="11274" max="11274" width="20" customWidth="1"/>
+    <col min="11275" max="11275" width="38.140625" customWidth="1"/>
+    <col min="11276" max="11277" width="10.42578125" customWidth="1"/>
+    <col min="11524" max="11524" width="3.7109375" customWidth="1"/>
+    <col min="11525" max="11525" width="22.85546875" customWidth="1"/>
+    <col min="11526" max="11528" width="5.85546875" customWidth="1"/>
+    <col min="11529" max="11529" width="8" customWidth="1"/>
+    <col min="11530" max="11530" width="20" customWidth="1"/>
+    <col min="11531" max="11531" width="38.140625" customWidth="1"/>
+    <col min="11532" max="11533" width="10.42578125" customWidth="1"/>
+    <col min="11780" max="11780" width="3.7109375" customWidth="1"/>
+    <col min="11781" max="11781" width="22.85546875" customWidth="1"/>
+    <col min="11782" max="11784" width="5.85546875" customWidth="1"/>
+    <col min="11785" max="11785" width="8" customWidth="1"/>
+    <col min="11786" max="11786" width="20" customWidth="1"/>
+    <col min="11787" max="11787" width="38.140625" customWidth="1"/>
+    <col min="11788" max="11789" width="10.42578125" customWidth="1"/>
+    <col min="12036" max="12036" width="3.7109375" customWidth="1"/>
+    <col min="12037" max="12037" width="22.85546875" customWidth="1"/>
+    <col min="12038" max="12040" width="5.85546875" customWidth="1"/>
+    <col min="12041" max="12041" width="8" customWidth="1"/>
+    <col min="12042" max="12042" width="20" customWidth="1"/>
+    <col min="12043" max="12043" width="38.140625" customWidth="1"/>
+    <col min="12044" max="12045" width="10.42578125" customWidth="1"/>
+    <col min="12292" max="12292" width="3.7109375" customWidth="1"/>
+    <col min="12293" max="12293" width="22.85546875" customWidth="1"/>
+    <col min="12294" max="12296" width="5.85546875" customWidth="1"/>
+    <col min="12297" max="12297" width="8" customWidth="1"/>
+    <col min="12298" max="12298" width="20" customWidth="1"/>
+    <col min="12299" max="12299" width="38.140625" customWidth="1"/>
+    <col min="12300" max="12301" width="10.42578125" customWidth="1"/>
+    <col min="12548" max="12548" width="3.7109375" customWidth="1"/>
+    <col min="12549" max="12549" width="22.85546875" customWidth="1"/>
+    <col min="12550" max="12552" width="5.85546875" customWidth="1"/>
+    <col min="12553" max="12553" width="8" customWidth="1"/>
+    <col min="12554" max="12554" width="20" customWidth="1"/>
+    <col min="12555" max="12555" width="38.140625" customWidth="1"/>
+    <col min="12556" max="12557" width="10.42578125" customWidth="1"/>
+    <col min="12804" max="12804" width="3.7109375" customWidth="1"/>
+    <col min="12805" max="12805" width="22.85546875" customWidth="1"/>
+    <col min="12806" max="12808" width="5.85546875" customWidth="1"/>
+    <col min="12809" max="12809" width="8" customWidth="1"/>
+    <col min="12810" max="12810" width="20" customWidth="1"/>
+    <col min="12811" max="12811" width="38.140625" customWidth="1"/>
+    <col min="12812" max="12813" width="10.42578125" customWidth="1"/>
+    <col min="13060" max="13060" width="3.7109375" customWidth="1"/>
+    <col min="13061" max="13061" width="22.85546875" customWidth="1"/>
+    <col min="13062" max="13064" width="5.85546875" customWidth="1"/>
+    <col min="13065" max="13065" width="8" customWidth="1"/>
+    <col min="13066" max="13066" width="20" customWidth="1"/>
+    <col min="13067" max="13067" width="38.140625" customWidth="1"/>
+    <col min="13068" max="13069" width="10.42578125" customWidth="1"/>
+    <col min="13316" max="13316" width="3.7109375" customWidth="1"/>
+    <col min="13317" max="13317" width="22.85546875" customWidth="1"/>
+    <col min="13318" max="13320" width="5.85546875" customWidth="1"/>
+    <col min="13321" max="13321" width="8" customWidth="1"/>
+    <col min="13322" max="13322" width="20" customWidth="1"/>
+    <col min="13323" max="13323" width="38.140625" customWidth="1"/>
+    <col min="13324" max="13325" width="10.42578125" customWidth="1"/>
+    <col min="13572" max="13572" width="3.7109375" customWidth="1"/>
+    <col min="13573" max="13573" width="22.85546875" customWidth="1"/>
+    <col min="13574" max="13576" width="5.85546875" customWidth="1"/>
+    <col min="13577" max="13577" width="8" customWidth="1"/>
+    <col min="13578" max="13578" width="20" customWidth="1"/>
+    <col min="13579" max="13579" width="38.140625" customWidth="1"/>
+    <col min="13580" max="13581" width="10.42578125" customWidth="1"/>
+    <col min="13828" max="13828" width="3.7109375" customWidth="1"/>
+    <col min="13829" max="13829" width="22.85546875" customWidth="1"/>
+    <col min="13830" max="13832" width="5.85546875" customWidth="1"/>
+    <col min="13833" max="13833" width="8" customWidth="1"/>
+    <col min="13834" max="13834" width="20" customWidth="1"/>
+    <col min="13835" max="13835" width="38.140625" customWidth="1"/>
+    <col min="13836" max="13837" width="10.42578125" customWidth="1"/>
+    <col min="14084" max="14084" width="3.7109375" customWidth="1"/>
+    <col min="14085" max="14085" width="22.85546875" customWidth="1"/>
+    <col min="14086" max="14088" width="5.85546875" customWidth="1"/>
+    <col min="14089" max="14089" width="8" customWidth="1"/>
+    <col min="14090" max="14090" width="20" customWidth="1"/>
+    <col min="14091" max="14091" width="38.140625" customWidth="1"/>
+    <col min="14092" max="14093" width="10.42578125" customWidth="1"/>
+    <col min="14340" max="14340" width="3.7109375" customWidth="1"/>
+    <col min="14341" max="14341" width="22.85546875" customWidth="1"/>
+    <col min="14342" max="14344" width="5.85546875" customWidth="1"/>
+    <col min="14345" max="14345" width="8" customWidth="1"/>
+    <col min="14346" max="14346" width="20" customWidth="1"/>
+    <col min="14347" max="14347" width="38.140625" customWidth="1"/>
+    <col min="14348" max="14349" width="10.42578125" customWidth="1"/>
+    <col min="14596" max="14596" width="3.7109375" customWidth="1"/>
+    <col min="14597" max="14597" width="22.85546875" customWidth="1"/>
+    <col min="14598" max="14600" width="5.85546875" customWidth="1"/>
+    <col min="14601" max="14601" width="8" customWidth="1"/>
+    <col min="14602" max="14602" width="20" customWidth="1"/>
+    <col min="14603" max="14603" width="38.140625" customWidth="1"/>
+    <col min="14604" max="14605" width="10.42578125" customWidth="1"/>
+    <col min="14852" max="14852" width="3.7109375" customWidth="1"/>
+    <col min="14853" max="14853" width="22.85546875" customWidth="1"/>
+    <col min="14854" max="14856" width="5.85546875" customWidth="1"/>
+    <col min="14857" max="14857" width="8" customWidth="1"/>
+    <col min="14858" max="14858" width="20" customWidth="1"/>
+    <col min="14859" max="14859" width="38.140625" customWidth="1"/>
+    <col min="14860" max="14861" width="10.42578125" customWidth="1"/>
+    <col min="15108" max="15108" width="3.7109375" customWidth="1"/>
+    <col min="15109" max="15109" width="22.85546875" customWidth="1"/>
+    <col min="15110" max="15112" width="5.85546875" customWidth="1"/>
+    <col min="15113" max="15113" width="8" customWidth="1"/>
+    <col min="15114" max="15114" width="20" customWidth="1"/>
+    <col min="15115" max="15115" width="38.140625" customWidth="1"/>
+    <col min="15116" max="15117" width="10.42578125" customWidth="1"/>
+    <col min="15364" max="15364" width="3.7109375" customWidth="1"/>
+    <col min="15365" max="15365" width="22.85546875" customWidth="1"/>
+    <col min="15366" max="15368" width="5.85546875" customWidth="1"/>
+    <col min="15369" max="15369" width="8" customWidth="1"/>
+    <col min="15370" max="15370" width="20" customWidth="1"/>
+    <col min="15371" max="15371" width="38.140625" customWidth="1"/>
+    <col min="15372" max="15373" width="10.42578125" customWidth="1"/>
+    <col min="15620" max="15620" width="3.7109375" customWidth="1"/>
+    <col min="15621" max="15621" width="22.85546875" customWidth="1"/>
+    <col min="15622" max="15624" width="5.85546875" customWidth="1"/>
+    <col min="15625" max="15625" width="8" customWidth="1"/>
+    <col min="15626" max="15626" width="20" customWidth="1"/>
+    <col min="15627" max="15627" width="38.140625" customWidth="1"/>
+    <col min="15628" max="15629" width="10.42578125" customWidth="1"/>
+    <col min="15876" max="15876" width="3.7109375" customWidth="1"/>
+    <col min="15877" max="15877" width="22.85546875" customWidth="1"/>
+    <col min="15878" max="15880" width="5.85546875" customWidth="1"/>
+    <col min="15881" max="15881" width="8" customWidth="1"/>
+    <col min="15882" max="15882" width="20" customWidth="1"/>
+    <col min="15883" max="15883" width="38.140625" customWidth="1"/>
+    <col min="15884" max="15885" width="10.42578125" customWidth="1"/>
+    <col min="16132" max="16132" width="3.7109375" customWidth="1"/>
+    <col min="16133" max="16133" width="22.85546875" customWidth="1"/>
+    <col min="16134" max="16136" width="5.85546875" customWidth="1"/>
+    <col min="16137" max="16137" width="8" customWidth="1"/>
+    <col min="16138" max="16138" width="20" customWidth="1"/>
+    <col min="16139" max="16139" width="38.140625" customWidth="1"/>
+    <col min="16140" max="16141" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="51">
+      <c r="E1" s="79">
         <v>40156</v>
       </c>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="80"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1392,122 +1428,131 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="H2" s="41"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="H3" s="41"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="H4" s="41"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="31"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="31"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="40" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="35" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" s="65"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="28" t="s">
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="41"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:27" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="66"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="65"/>
+    </row>
+    <row r="8" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="25"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="25"/>
-      <c r="AA8" s="33"/>
-    </row>
-    <row r="9" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="25"/>
+      <c r="AB8" s="33"/>
+    </row>
+    <row r="9" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="30" t="s">
         <v>4</v>
@@ -1517,13 +1562,14 @@
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="16"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="16"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="16"/>
-      <c r="AA9" s="34"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L9" s="16"/>
+      <c r="AB9" s="34"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1531,14 +1577,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="2"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1546,75 +1593,81 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
       <c r="K11" s="16"/>
-      <c r="AA11" s="34"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="L11" s="16"/>
+      <c r="AB11" s="34"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="40" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="35" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13" s="65"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="41"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="66"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="65"/>
+    </row>
+    <row r="14" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="19"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
       <c r="K14" s="19"/>
-      <c r="AA14" s="32"/>
-    </row>
-    <row r="15" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="19"/>
+      <c r="AB14" s="32"/>
+    </row>
+    <row r="15" spans="1:28" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="12" t="s">
         <v>4</v>
@@ -1624,13 +1677,14 @@
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="16"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
       <c r="K15" s="16"/>
-      <c r="AA15" s="34"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="L15" s="16"/>
+      <c r="AB15" s="34"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>3</v>
       </c>
@@ -1640,21 +1694,22 @@
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="38" t="s">
+      <c r="H16" s="45"/>
+      <c r="I16" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16" s="64"/>
+      <c r="K16" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="60"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>1</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="16"/>
@@ -1662,28 +1717,30 @@
       <c r="F17" s="16"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>2</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="55"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H18" s="46"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="38"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1691,30 +1748,33 @@
       <c r="E19" s="1"/>
       <c r="F19" s="16"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="55"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="46"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="38"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="57"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I23" s="65"/>
-      <c r="J23" s="5"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="40"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
       <c r="K23" s="5"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1722,12 +1782,13 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H24" s="48"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1735,9 +1796,9 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="65"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H25" s="48"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1745,9 +1806,9 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="H26" s="65"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1755,9 +1816,9 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="H27" s="65"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1765,9 +1826,9 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="65"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H28" s="48"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1775,9 +1836,9 @@
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="65"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H29" s="48"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1785,9 +1846,9 @@
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="65"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1795,9 +1856,9 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="65"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -1805,7 +1866,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="65"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
@@ -1815,15 +1876,16 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="65"/>
+      <c r="H33" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="I1:K1"/>
+  <mergeCells count="25">
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="E1:H1"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
@@ -1834,13 +1896,15 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="K12:K13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K12:K13"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="L12:L13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/CMS.Web/Modules/Sails/Admin/ExportTemplates/TourCommand.xlsx
+++ b/CMS.Web/Modules/Sails/Admin/ExportTemplates/TourCommand.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\orientalsails\CMS.Web\Modules\Sails\Admin\ExportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4147591A-28E9-4C5C-A337-7DB368A4D737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F85FBFA-F126-4C77-9D7B-AADB195D5F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,9 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -534,68 +531,71 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -940,7 +940,7 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1407,18 +1407,18 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="79">
+      <c r="E1" s="77">
         <v>40156</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="80" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="80"/>
+      <c r="L1" s="78"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1429,8 +1429,8 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
     </row>
@@ -1446,8 +1446,8 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="H3" s="41"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="2"/>
       <c r="L3" s="4"/>
     </row>
@@ -1463,8 +1463,8 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="H4" s="41"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="2"/>
       <c r="L4" s="4"/>
     </row>
@@ -1480,47 +1480,47 @@
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="H5" s="41"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
       <c r="K5" s="2"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
+    <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="70" t="s">
+      <c r="C6" s="70"/>
+      <c r="D6" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="66" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="61" t="s">
+      <c r="J6" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="65" t="s">
+      <c r="L6" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="72"/>
       <c r="D7" s="28" t="s">
         <v>7</v>
       </c>
@@ -1530,17 +1530,17 @@
       <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="66"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="65"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="63"/>
     </row>
     <row r="8" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -1563,8 +1563,8 @@
       <c r="F9" s="29"/>
       <c r="G9" s="16"/>
       <c r="H9" s="43"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="AB9" s="34"/>
@@ -1578,8 +1578,8 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="41"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
@@ -1594,48 +1594,48 @@
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
       <c r="AB11" s="34"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
+    <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="70" t="s">
+      <c r="C12" s="70"/>
+      <c r="D12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="66" t="s">
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="66" t="s">
+      <c r="I12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="61" t="s">
+      <c r="J12" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="67" t="s">
+      <c r="K12" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="72"/>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1645,17 +1645,17 @@
       <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="66"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="65"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -1678,8 +1678,8 @@
       <c r="F15" s="29"/>
       <c r="G15" s="16"/>
       <c r="H15" s="43"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
       <c r="AB15" s="34"/>
@@ -1695,14 +1695,14 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="60" t="s">
+      <c r="J16" s="61"/>
+      <c r="K16" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="60"/>
+      <c r="L16" s="62"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -1717,8 +1717,8 @@
       <c r="F17" s="16"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
       <c r="K17" s="35"/>
       <c r="L17" s="36"/>
     </row>
@@ -1735,8 +1735,8 @@
       <c r="F18" s="16"/>
       <c r="G18" s="1"/>
       <c r="H18" s="46"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
       <c r="K18" s="37"/>
       <c r="L18" s="38"/>
     </row>
@@ -1749,8 +1749,8 @@
       <c r="F19" s="16"/>
       <c r="G19" s="1"/>
       <c r="H19" s="46"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="53"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="37"/>
       <c r="L19" s="38"/>
     </row>
@@ -1758,13 +1758,13 @@
       <c r="A20" s="14"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
       <c r="H20" s="43"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="55"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="39"/>
       <c r="L20" s="40"/>
     </row>
@@ -1879,13 +1879,11 @@
       <c r="H33" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:I7"/>
+  <mergeCells count="22">
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="K1:L1"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I1:J1"/>
     <mergeCell ref="D20:G20"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A12:A13"/>
@@ -1896,15 +1894,14 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="L12:L13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K12:K13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/CMS.Web/Modules/Sails/Admin/ExportTemplates/TourCommand.xlsx
+++ b/CMS.Web/Modules/Sails/Admin/ExportTemplates/TourCommand.xlsx
@@ -1,29 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\orientalsails\CMS.Web\Modules\Sails\Admin\ExportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thieu\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F85FBFA-F126-4C77-9D7B-AADB195D5F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D1F83-3E88-4B88-BAF3-C63A7B8337E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="656" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tour Command" sheetId="5" r:id="rId1"/>
+    <sheet name="TC-VD1" sheetId="11" r:id="rId1"/>
+    <sheet name="TC-VD" sheetId="7" r:id="rId2"/>
+    <sheet name="Tour Command" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tour Command'!$A$1:$L$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Tour Command'!$A$1:$L$20</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Bui Van Chi</author>
+  </authors>
+  <commentList>
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{B9CEC67D-B420-412D-BA8E-60561A7B2744}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bui Van Chi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Pickup address</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{D25F6576-06E0-4D79-84B6-95B81EB70E3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bui Van Chi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Special Request Food</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>Name</t>
   </si>
@@ -98,6 +158,42 @@
   </si>
   <si>
     <t>Special request room</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Yêu cầu đặc biệt</t>
+  </si>
+  <si>
+    <t>Đón / Trả</t>
+  </si>
+  <si>
+    <t>Tour</t>
+  </si>
+  <si>
+    <t>Số lượng khách</t>
+  </si>
+  <si>
+    <t>Tên khách</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>{TÊN TRIP}</t>
+  </si>
+  <si>
+    <t>V Dream Cruise</t>
+  </si>
+  <si>
+    <t>Wednesday, December 27, 2023</t>
   </si>
 </sst>
 </file>
@@ -107,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -210,6 +306,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -405,7 +520,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,6 +649,118 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,59 +770,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -936,10 +1118,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAD24FB-82E4-456D-99D2-B2266381F58E}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="62" customWidth="1"/>
+    <col min="3" max="5" width="5.85546875" style="63" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="63" customWidth="1"/>
+    <col min="7" max="8" width="28" style="62" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="40.85546875" customWidth="1"/>
+    <col min="257" max="257" width="3.7109375" customWidth="1"/>
+    <col min="258" max="258" width="22.85546875" customWidth="1"/>
+    <col min="259" max="261" width="5.85546875" customWidth="1"/>
+    <col min="262" max="262" width="8" customWidth="1"/>
+    <col min="263" max="263" width="20" customWidth="1"/>
+    <col min="264" max="264" width="38.140625" customWidth="1"/>
+    <col min="265" max="266" width="10.42578125" customWidth="1"/>
+    <col min="513" max="513" width="3.7109375" customWidth="1"/>
+    <col min="514" max="514" width="22.85546875" customWidth="1"/>
+    <col min="515" max="517" width="5.85546875" customWidth="1"/>
+    <col min="518" max="518" width="8" customWidth="1"/>
+    <col min="519" max="519" width="20" customWidth="1"/>
+    <col min="520" max="520" width="38.140625" customWidth="1"/>
+    <col min="521" max="522" width="10.42578125" customWidth="1"/>
+    <col min="769" max="769" width="3.7109375" customWidth="1"/>
+    <col min="770" max="770" width="22.85546875" customWidth="1"/>
+    <col min="771" max="773" width="5.85546875" customWidth="1"/>
+    <col min="774" max="774" width="8" customWidth="1"/>
+    <col min="775" max="775" width="20" customWidth="1"/>
+    <col min="776" max="776" width="38.140625" customWidth="1"/>
+    <col min="777" max="778" width="10.42578125" customWidth="1"/>
+    <col min="1025" max="1025" width="3.7109375" customWidth="1"/>
+    <col min="1026" max="1026" width="22.85546875" customWidth="1"/>
+    <col min="1027" max="1029" width="5.85546875" customWidth="1"/>
+    <col min="1030" max="1030" width="8" customWidth="1"/>
+    <col min="1031" max="1031" width="20" customWidth="1"/>
+    <col min="1032" max="1032" width="38.140625" customWidth="1"/>
+    <col min="1033" max="1034" width="10.42578125" customWidth="1"/>
+    <col min="1281" max="1281" width="3.7109375" customWidth="1"/>
+    <col min="1282" max="1282" width="22.85546875" customWidth="1"/>
+    <col min="1283" max="1285" width="5.85546875" customWidth="1"/>
+    <col min="1286" max="1286" width="8" customWidth="1"/>
+    <col min="1287" max="1287" width="20" customWidth="1"/>
+    <col min="1288" max="1288" width="38.140625" customWidth="1"/>
+    <col min="1289" max="1290" width="10.42578125" customWidth="1"/>
+    <col min="1537" max="1537" width="3.7109375" customWidth="1"/>
+    <col min="1538" max="1538" width="22.85546875" customWidth="1"/>
+    <col min="1539" max="1541" width="5.85546875" customWidth="1"/>
+    <col min="1542" max="1542" width="8" customWidth="1"/>
+    <col min="1543" max="1543" width="20" customWidth="1"/>
+    <col min="1544" max="1544" width="38.140625" customWidth="1"/>
+    <col min="1545" max="1546" width="10.42578125" customWidth="1"/>
+    <col min="1793" max="1793" width="3.7109375" customWidth="1"/>
+    <col min="1794" max="1794" width="22.85546875" customWidth="1"/>
+    <col min="1795" max="1797" width="5.85546875" customWidth="1"/>
+    <col min="1798" max="1798" width="8" customWidth="1"/>
+    <col min="1799" max="1799" width="20" customWidth="1"/>
+    <col min="1800" max="1800" width="38.140625" customWidth="1"/>
+    <col min="1801" max="1802" width="10.42578125" customWidth="1"/>
+    <col min="2049" max="2049" width="3.7109375" customWidth="1"/>
+    <col min="2050" max="2050" width="22.85546875" customWidth="1"/>
+    <col min="2051" max="2053" width="5.85546875" customWidth="1"/>
+    <col min="2054" max="2054" width="8" customWidth="1"/>
+    <col min="2055" max="2055" width="20" customWidth="1"/>
+    <col min="2056" max="2056" width="38.140625" customWidth="1"/>
+    <col min="2057" max="2058" width="10.42578125" customWidth="1"/>
+    <col min="2305" max="2305" width="3.7109375" customWidth="1"/>
+    <col min="2306" max="2306" width="22.85546875" customWidth="1"/>
+    <col min="2307" max="2309" width="5.85546875" customWidth="1"/>
+    <col min="2310" max="2310" width="8" customWidth="1"/>
+    <col min="2311" max="2311" width="20" customWidth="1"/>
+    <col min="2312" max="2312" width="38.140625" customWidth="1"/>
+    <col min="2313" max="2314" width="10.42578125" customWidth="1"/>
+    <col min="2561" max="2561" width="3.7109375" customWidth="1"/>
+    <col min="2562" max="2562" width="22.85546875" customWidth="1"/>
+    <col min="2563" max="2565" width="5.85546875" customWidth="1"/>
+    <col min="2566" max="2566" width="8" customWidth="1"/>
+    <col min="2567" max="2567" width="20" customWidth="1"/>
+    <col min="2568" max="2568" width="38.140625" customWidth="1"/>
+    <col min="2569" max="2570" width="10.42578125" customWidth="1"/>
+    <col min="2817" max="2817" width="3.7109375" customWidth="1"/>
+    <col min="2818" max="2818" width="22.85546875" customWidth="1"/>
+    <col min="2819" max="2821" width="5.85546875" customWidth="1"/>
+    <col min="2822" max="2822" width="8" customWidth="1"/>
+    <col min="2823" max="2823" width="20" customWidth="1"/>
+    <col min="2824" max="2824" width="38.140625" customWidth="1"/>
+    <col min="2825" max="2826" width="10.42578125" customWidth="1"/>
+    <col min="3073" max="3073" width="3.7109375" customWidth="1"/>
+    <col min="3074" max="3074" width="22.85546875" customWidth="1"/>
+    <col min="3075" max="3077" width="5.85546875" customWidth="1"/>
+    <col min="3078" max="3078" width="8" customWidth="1"/>
+    <col min="3079" max="3079" width="20" customWidth="1"/>
+    <col min="3080" max="3080" width="38.140625" customWidth="1"/>
+    <col min="3081" max="3082" width="10.42578125" customWidth="1"/>
+    <col min="3329" max="3329" width="3.7109375" customWidth="1"/>
+    <col min="3330" max="3330" width="22.85546875" customWidth="1"/>
+    <col min="3331" max="3333" width="5.85546875" customWidth="1"/>
+    <col min="3334" max="3334" width="8" customWidth="1"/>
+    <col min="3335" max="3335" width="20" customWidth="1"/>
+    <col min="3336" max="3336" width="38.140625" customWidth="1"/>
+    <col min="3337" max="3338" width="10.42578125" customWidth="1"/>
+    <col min="3585" max="3585" width="3.7109375" customWidth="1"/>
+    <col min="3586" max="3586" width="22.85546875" customWidth="1"/>
+    <col min="3587" max="3589" width="5.85546875" customWidth="1"/>
+    <col min="3590" max="3590" width="8" customWidth="1"/>
+    <col min="3591" max="3591" width="20" customWidth="1"/>
+    <col min="3592" max="3592" width="38.140625" customWidth="1"/>
+    <col min="3593" max="3594" width="10.42578125" customWidth="1"/>
+    <col min="3841" max="3841" width="3.7109375" customWidth="1"/>
+    <col min="3842" max="3842" width="22.85546875" customWidth="1"/>
+    <col min="3843" max="3845" width="5.85546875" customWidth="1"/>
+    <col min="3846" max="3846" width="8" customWidth="1"/>
+    <col min="3847" max="3847" width="20" customWidth="1"/>
+    <col min="3848" max="3848" width="38.140625" customWidth="1"/>
+    <col min="3849" max="3850" width="10.42578125" customWidth="1"/>
+    <col min="4097" max="4097" width="3.7109375" customWidth="1"/>
+    <col min="4098" max="4098" width="22.85546875" customWidth="1"/>
+    <col min="4099" max="4101" width="5.85546875" customWidth="1"/>
+    <col min="4102" max="4102" width="8" customWidth="1"/>
+    <col min="4103" max="4103" width="20" customWidth="1"/>
+    <col min="4104" max="4104" width="38.140625" customWidth="1"/>
+    <col min="4105" max="4106" width="10.42578125" customWidth="1"/>
+    <col min="4353" max="4353" width="3.7109375" customWidth="1"/>
+    <col min="4354" max="4354" width="22.85546875" customWidth="1"/>
+    <col min="4355" max="4357" width="5.85546875" customWidth="1"/>
+    <col min="4358" max="4358" width="8" customWidth="1"/>
+    <col min="4359" max="4359" width="20" customWidth="1"/>
+    <col min="4360" max="4360" width="38.140625" customWidth="1"/>
+    <col min="4361" max="4362" width="10.42578125" customWidth="1"/>
+    <col min="4609" max="4609" width="3.7109375" customWidth="1"/>
+    <col min="4610" max="4610" width="22.85546875" customWidth="1"/>
+    <col min="4611" max="4613" width="5.85546875" customWidth="1"/>
+    <col min="4614" max="4614" width="8" customWidth="1"/>
+    <col min="4615" max="4615" width="20" customWidth="1"/>
+    <col min="4616" max="4616" width="38.140625" customWidth="1"/>
+    <col min="4617" max="4618" width="10.42578125" customWidth="1"/>
+    <col min="4865" max="4865" width="3.7109375" customWidth="1"/>
+    <col min="4866" max="4866" width="22.85546875" customWidth="1"/>
+    <col min="4867" max="4869" width="5.85546875" customWidth="1"/>
+    <col min="4870" max="4870" width="8" customWidth="1"/>
+    <col min="4871" max="4871" width="20" customWidth="1"/>
+    <col min="4872" max="4872" width="38.140625" customWidth="1"/>
+    <col min="4873" max="4874" width="10.42578125" customWidth="1"/>
+    <col min="5121" max="5121" width="3.7109375" customWidth="1"/>
+    <col min="5122" max="5122" width="22.85546875" customWidth="1"/>
+    <col min="5123" max="5125" width="5.85546875" customWidth="1"/>
+    <col min="5126" max="5126" width="8" customWidth="1"/>
+    <col min="5127" max="5127" width="20" customWidth="1"/>
+    <col min="5128" max="5128" width="38.140625" customWidth="1"/>
+    <col min="5129" max="5130" width="10.42578125" customWidth="1"/>
+    <col min="5377" max="5377" width="3.7109375" customWidth="1"/>
+    <col min="5378" max="5378" width="22.85546875" customWidth="1"/>
+    <col min="5379" max="5381" width="5.85546875" customWidth="1"/>
+    <col min="5382" max="5382" width="8" customWidth="1"/>
+    <col min="5383" max="5383" width="20" customWidth="1"/>
+    <col min="5384" max="5384" width="38.140625" customWidth="1"/>
+    <col min="5385" max="5386" width="10.42578125" customWidth="1"/>
+    <col min="5633" max="5633" width="3.7109375" customWidth="1"/>
+    <col min="5634" max="5634" width="22.85546875" customWidth="1"/>
+    <col min="5635" max="5637" width="5.85546875" customWidth="1"/>
+    <col min="5638" max="5638" width="8" customWidth="1"/>
+    <col min="5639" max="5639" width="20" customWidth="1"/>
+    <col min="5640" max="5640" width="38.140625" customWidth="1"/>
+    <col min="5641" max="5642" width="10.42578125" customWidth="1"/>
+    <col min="5889" max="5889" width="3.7109375" customWidth="1"/>
+    <col min="5890" max="5890" width="22.85546875" customWidth="1"/>
+    <col min="5891" max="5893" width="5.85546875" customWidth="1"/>
+    <col min="5894" max="5894" width="8" customWidth="1"/>
+    <col min="5895" max="5895" width="20" customWidth="1"/>
+    <col min="5896" max="5896" width="38.140625" customWidth="1"/>
+    <col min="5897" max="5898" width="10.42578125" customWidth="1"/>
+    <col min="6145" max="6145" width="3.7109375" customWidth="1"/>
+    <col min="6146" max="6146" width="22.85546875" customWidth="1"/>
+    <col min="6147" max="6149" width="5.85546875" customWidth="1"/>
+    <col min="6150" max="6150" width="8" customWidth="1"/>
+    <col min="6151" max="6151" width="20" customWidth="1"/>
+    <col min="6152" max="6152" width="38.140625" customWidth="1"/>
+    <col min="6153" max="6154" width="10.42578125" customWidth="1"/>
+    <col min="6401" max="6401" width="3.7109375" customWidth="1"/>
+    <col min="6402" max="6402" width="22.85546875" customWidth="1"/>
+    <col min="6403" max="6405" width="5.85546875" customWidth="1"/>
+    <col min="6406" max="6406" width="8" customWidth="1"/>
+    <col min="6407" max="6407" width="20" customWidth="1"/>
+    <col min="6408" max="6408" width="38.140625" customWidth="1"/>
+    <col min="6409" max="6410" width="10.42578125" customWidth="1"/>
+    <col min="6657" max="6657" width="3.7109375" customWidth="1"/>
+    <col min="6658" max="6658" width="22.85546875" customWidth="1"/>
+    <col min="6659" max="6661" width="5.85546875" customWidth="1"/>
+    <col min="6662" max="6662" width="8" customWidth="1"/>
+    <col min="6663" max="6663" width="20" customWidth="1"/>
+    <col min="6664" max="6664" width="38.140625" customWidth="1"/>
+    <col min="6665" max="6666" width="10.42578125" customWidth="1"/>
+    <col min="6913" max="6913" width="3.7109375" customWidth="1"/>
+    <col min="6914" max="6914" width="22.85546875" customWidth="1"/>
+    <col min="6915" max="6917" width="5.85546875" customWidth="1"/>
+    <col min="6918" max="6918" width="8" customWidth="1"/>
+    <col min="6919" max="6919" width="20" customWidth="1"/>
+    <col min="6920" max="6920" width="38.140625" customWidth="1"/>
+    <col min="6921" max="6922" width="10.42578125" customWidth="1"/>
+    <col min="7169" max="7169" width="3.7109375" customWidth="1"/>
+    <col min="7170" max="7170" width="22.85546875" customWidth="1"/>
+    <col min="7171" max="7173" width="5.85546875" customWidth="1"/>
+    <col min="7174" max="7174" width="8" customWidth="1"/>
+    <col min="7175" max="7175" width="20" customWidth="1"/>
+    <col min="7176" max="7176" width="38.140625" customWidth="1"/>
+    <col min="7177" max="7178" width="10.42578125" customWidth="1"/>
+    <col min="7425" max="7425" width="3.7109375" customWidth="1"/>
+    <col min="7426" max="7426" width="22.85546875" customWidth="1"/>
+    <col min="7427" max="7429" width="5.85546875" customWidth="1"/>
+    <col min="7430" max="7430" width="8" customWidth="1"/>
+    <col min="7431" max="7431" width="20" customWidth="1"/>
+    <col min="7432" max="7432" width="38.140625" customWidth="1"/>
+    <col min="7433" max="7434" width="10.42578125" customWidth="1"/>
+    <col min="7681" max="7681" width="3.7109375" customWidth="1"/>
+    <col min="7682" max="7682" width="22.85546875" customWidth="1"/>
+    <col min="7683" max="7685" width="5.85546875" customWidth="1"/>
+    <col min="7686" max="7686" width="8" customWidth="1"/>
+    <col min="7687" max="7687" width="20" customWidth="1"/>
+    <col min="7688" max="7688" width="38.140625" customWidth="1"/>
+    <col min="7689" max="7690" width="10.42578125" customWidth="1"/>
+    <col min="7937" max="7937" width="3.7109375" customWidth="1"/>
+    <col min="7938" max="7938" width="22.85546875" customWidth="1"/>
+    <col min="7939" max="7941" width="5.85546875" customWidth="1"/>
+    <col min="7942" max="7942" width="8" customWidth="1"/>
+    <col min="7943" max="7943" width="20" customWidth="1"/>
+    <col min="7944" max="7944" width="38.140625" customWidth="1"/>
+    <col min="7945" max="7946" width="10.42578125" customWidth="1"/>
+    <col min="8193" max="8193" width="3.7109375" customWidth="1"/>
+    <col min="8194" max="8194" width="22.85546875" customWidth="1"/>
+    <col min="8195" max="8197" width="5.85546875" customWidth="1"/>
+    <col min="8198" max="8198" width="8" customWidth="1"/>
+    <col min="8199" max="8199" width="20" customWidth="1"/>
+    <col min="8200" max="8200" width="38.140625" customWidth="1"/>
+    <col min="8201" max="8202" width="10.42578125" customWidth="1"/>
+    <col min="8449" max="8449" width="3.7109375" customWidth="1"/>
+    <col min="8450" max="8450" width="22.85546875" customWidth="1"/>
+    <col min="8451" max="8453" width="5.85546875" customWidth="1"/>
+    <col min="8454" max="8454" width="8" customWidth="1"/>
+    <col min="8455" max="8455" width="20" customWidth="1"/>
+    <col min="8456" max="8456" width="38.140625" customWidth="1"/>
+    <col min="8457" max="8458" width="10.42578125" customWidth="1"/>
+    <col min="8705" max="8705" width="3.7109375" customWidth="1"/>
+    <col min="8706" max="8706" width="22.85546875" customWidth="1"/>
+    <col min="8707" max="8709" width="5.85546875" customWidth="1"/>
+    <col min="8710" max="8710" width="8" customWidth="1"/>
+    <col min="8711" max="8711" width="20" customWidth="1"/>
+    <col min="8712" max="8712" width="38.140625" customWidth="1"/>
+    <col min="8713" max="8714" width="10.42578125" customWidth="1"/>
+    <col min="8961" max="8961" width="3.7109375" customWidth="1"/>
+    <col min="8962" max="8962" width="22.85546875" customWidth="1"/>
+    <col min="8963" max="8965" width="5.85546875" customWidth="1"/>
+    <col min="8966" max="8966" width="8" customWidth="1"/>
+    <col min="8967" max="8967" width="20" customWidth="1"/>
+    <col min="8968" max="8968" width="38.140625" customWidth="1"/>
+    <col min="8969" max="8970" width="10.42578125" customWidth="1"/>
+    <col min="9217" max="9217" width="3.7109375" customWidth="1"/>
+    <col min="9218" max="9218" width="22.85546875" customWidth="1"/>
+    <col min="9219" max="9221" width="5.85546875" customWidth="1"/>
+    <col min="9222" max="9222" width="8" customWidth="1"/>
+    <col min="9223" max="9223" width="20" customWidth="1"/>
+    <col min="9224" max="9224" width="38.140625" customWidth="1"/>
+    <col min="9225" max="9226" width="10.42578125" customWidth="1"/>
+    <col min="9473" max="9473" width="3.7109375" customWidth="1"/>
+    <col min="9474" max="9474" width="22.85546875" customWidth="1"/>
+    <col min="9475" max="9477" width="5.85546875" customWidth="1"/>
+    <col min="9478" max="9478" width="8" customWidth="1"/>
+    <col min="9479" max="9479" width="20" customWidth="1"/>
+    <col min="9480" max="9480" width="38.140625" customWidth="1"/>
+    <col min="9481" max="9482" width="10.42578125" customWidth="1"/>
+    <col min="9729" max="9729" width="3.7109375" customWidth="1"/>
+    <col min="9730" max="9730" width="22.85546875" customWidth="1"/>
+    <col min="9731" max="9733" width="5.85546875" customWidth="1"/>
+    <col min="9734" max="9734" width="8" customWidth="1"/>
+    <col min="9735" max="9735" width="20" customWidth="1"/>
+    <col min="9736" max="9736" width="38.140625" customWidth="1"/>
+    <col min="9737" max="9738" width="10.42578125" customWidth="1"/>
+    <col min="9985" max="9985" width="3.7109375" customWidth="1"/>
+    <col min="9986" max="9986" width="22.85546875" customWidth="1"/>
+    <col min="9987" max="9989" width="5.85546875" customWidth="1"/>
+    <col min="9990" max="9990" width="8" customWidth="1"/>
+    <col min="9991" max="9991" width="20" customWidth="1"/>
+    <col min="9992" max="9992" width="38.140625" customWidth="1"/>
+    <col min="9993" max="9994" width="10.42578125" customWidth="1"/>
+    <col min="10241" max="10241" width="3.7109375" customWidth="1"/>
+    <col min="10242" max="10242" width="22.85546875" customWidth="1"/>
+    <col min="10243" max="10245" width="5.85546875" customWidth="1"/>
+    <col min="10246" max="10246" width="8" customWidth="1"/>
+    <col min="10247" max="10247" width="20" customWidth="1"/>
+    <col min="10248" max="10248" width="38.140625" customWidth="1"/>
+    <col min="10249" max="10250" width="10.42578125" customWidth="1"/>
+    <col min="10497" max="10497" width="3.7109375" customWidth="1"/>
+    <col min="10498" max="10498" width="22.85546875" customWidth="1"/>
+    <col min="10499" max="10501" width="5.85546875" customWidth="1"/>
+    <col min="10502" max="10502" width="8" customWidth="1"/>
+    <col min="10503" max="10503" width="20" customWidth="1"/>
+    <col min="10504" max="10504" width="38.140625" customWidth="1"/>
+    <col min="10505" max="10506" width="10.42578125" customWidth="1"/>
+    <col min="10753" max="10753" width="3.7109375" customWidth="1"/>
+    <col min="10754" max="10754" width="22.85546875" customWidth="1"/>
+    <col min="10755" max="10757" width="5.85546875" customWidth="1"/>
+    <col min="10758" max="10758" width="8" customWidth="1"/>
+    <col min="10759" max="10759" width="20" customWidth="1"/>
+    <col min="10760" max="10760" width="38.140625" customWidth="1"/>
+    <col min="10761" max="10762" width="10.42578125" customWidth="1"/>
+    <col min="11009" max="11009" width="3.7109375" customWidth="1"/>
+    <col min="11010" max="11010" width="22.85546875" customWidth="1"/>
+    <col min="11011" max="11013" width="5.85546875" customWidth="1"/>
+    <col min="11014" max="11014" width="8" customWidth="1"/>
+    <col min="11015" max="11015" width="20" customWidth="1"/>
+    <col min="11016" max="11016" width="38.140625" customWidth="1"/>
+    <col min="11017" max="11018" width="10.42578125" customWidth="1"/>
+    <col min="11265" max="11265" width="3.7109375" customWidth="1"/>
+    <col min="11266" max="11266" width="22.85546875" customWidth="1"/>
+    <col min="11267" max="11269" width="5.85546875" customWidth="1"/>
+    <col min="11270" max="11270" width="8" customWidth="1"/>
+    <col min="11271" max="11271" width="20" customWidth="1"/>
+    <col min="11272" max="11272" width="38.140625" customWidth="1"/>
+    <col min="11273" max="11274" width="10.42578125" customWidth="1"/>
+    <col min="11521" max="11521" width="3.7109375" customWidth="1"/>
+    <col min="11522" max="11522" width="22.85546875" customWidth="1"/>
+    <col min="11523" max="11525" width="5.85546875" customWidth="1"/>
+    <col min="11526" max="11526" width="8" customWidth="1"/>
+    <col min="11527" max="11527" width="20" customWidth="1"/>
+    <col min="11528" max="11528" width="38.140625" customWidth="1"/>
+    <col min="11529" max="11530" width="10.42578125" customWidth="1"/>
+    <col min="11777" max="11777" width="3.7109375" customWidth="1"/>
+    <col min="11778" max="11778" width="22.85546875" customWidth="1"/>
+    <col min="11779" max="11781" width="5.85546875" customWidth="1"/>
+    <col min="11782" max="11782" width="8" customWidth="1"/>
+    <col min="11783" max="11783" width="20" customWidth="1"/>
+    <col min="11784" max="11784" width="38.140625" customWidth="1"/>
+    <col min="11785" max="11786" width="10.42578125" customWidth="1"/>
+    <col min="12033" max="12033" width="3.7109375" customWidth="1"/>
+    <col min="12034" max="12034" width="22.85546875" customWidth="1"/>
+    <col min="12035" max="12037" width="5.85546875" customWidth="1"/>
+    <col min="12038" max="12038" width="8" customWidth="1"/>
+    <col min="12039" max="12039" width="20" customWidth="1"/>
+    <col min="12040" max="12040" width="38.140625" customWidth="1"/>
+    <col min="12041" max="12042" width="10.42578125" customWidth="1"/>
+    <col min="12289" max="12289" width="3.7109375" customWidth="1"/>
+    <col min="12290" max="12290" width="22.85546875" customWidth="1"/>
+    <col min="12291" max="12293" width="5.85546875" customWidth="1"/>
+    <col min="12294" max="12294" width="8" customWidth="1"/>
+    <col min="12295" max="12295" width="20" customWidth="1"/>
+    <col min="12296" max="12296" width="38.140625" customWidth="1"/>
+    <col min="12297" max="12298" width="10.42578125" customWidth="1"/>
+    <col min="12545" max="12545" width="3.7109375" customWidth="1"/>
+    <col min="12546" max="12546" width="22.85546875" customWidth="1"/>
+    <col min="12547" max="12549" width="5.85546875" customWidth="1"/>
+    <col min="12550" max="12550" width="8" customWidth="1"/>
+    <col min="12551" max="12551" width="20" customWidth="1"/>
+    <col min="12552" max="12552" width="38.140625" customWidth="1"/>
+    <col min="12553" max="12554" width="10.42578125" customWidth="1"/>
+    <col min="12801" max="12801" width="3.7109375" customWidth="1"/>
+    <col min="12802" max="12802" width="22.85546875" customWidth="1"/>
+    <col min="12803" max="12805" width="5.85546875" customWidth="1"/>
+    <col min="12806" max="12806" width="8" customWidth="1"/>
+    <col min="12807" max="12807" width="20" customWidth="1"/>
+    <col min="12808" max="12808" width="38.140625" customWidth="1"/>
+    <col min="12809" max="12810" width="10.42578125" customWidth="1"/>
+    <col min="13057" max="13057" width="3.7109375" customWidth="1"/>
+    <col min="13058" max="13058" width="22.85546875" customWidth="1"/>
+    <col min="13059" max="13061" width="5.85546875" customWidth="1"/>
+    <col min="13062" max="13062" width="8" customWidth="1"/>
+    <col min="13063" max="13063" width="20" customWidth="1"/>
+    <col min="13064" max="13064" width="38.140625" customWidth="1"/>
+    <col min="13065" max="13066" width="10.42578125" customWidth="1"/>
+    <col min="13313" max="13313" width="3.7109375" customWidth="1"/>
+    <col min="13314" max="13314" width="22.85546875" customWidth="1"/>
+    <col min="13315" max="13317" width="5.85546875" customWidth="1"/>
+    <col min="13318" max="13318" width="8" customWidth="1"/>
+    <col min="13319" max="13319" width="20" customWidth="1"/>
+    <col min="13320" max="13320" width="38.140625" customWidth="1"/>
+    <col min="13321" max="13322" width="10.42578125" customWidth="1"/>
+    <col min="13569" max="13569" width="3.7109375" customWidth="1"/>
+    <col min="13570" max="13570" width="22.85546875" customWidth="1"/>
+    <col min="13571" max="13573" width="5.85546875" customWidth="1"/>
+    <col min="13574" max="13574" width="8" customWidth="1"/>
+    <col min="13575" max="13575" width="20" customWidth="1"/>
+    <col min="13576" max="13576" width="38.140625" customWidth="1"/>
+    <col min="13577" max="13578" width="10.42578125" customWidth="1"/>
+    <col min="13825" max="13825" width="3.7109375" customWidth="1"/>
+    <col min="13826" max="13826" width="22.85546875" customWidth="1"/>
+    <col min="13827" max="13829" width="5.85546875" customWidth="1"/>
+    <col min="13830" max="13830" width="8" customWidth="1"/>
+    <col min="13831" max="13831" width="20" customWidth="1"/>
+    <col min="13832" max="13832" width="38.140625" customWidth="1"/>
+    <col min="13833" max="13834" width="10.42578125" customWidth="1"/>
+    <col min="14081" max="14081" width="3.7109375" customWidth="1"/>
+    <col min="14082" max="14082" width="22.85546875" customWidth="1"/>
+    <col min="14083" max="14085" width="5.85546875" customWidth="1"/>
+    <col min="14086" max="14086" width="8" customWidth="1"/>
+    <col min="14087" max="14087" width="20" customWidth="1"/>
+    <col min="14088" max="14088" width="38.140625" customWidth="1"/>
+    <col min="14089" max="14090" width="10.42578125" customWidth="1"/>
+    <col min="14337" max="14337" width="3.7109375" customWidth="1"/>
+    <col min="14338" max="14338" width="22.85546875" customWidth="1"/>
+    <col min="14339" max="14341" width="5.85546875" customWidth="1"/>
+    <col min="14342" max="14342" width="8" customWidth="1"/>
+    <col min="14343" max="14343" width="20" customWidth="1"/>
+    <col min="14344" max="14344" width="38.140625" customWidth="1"/>
+    <col min="14345" max="14346" width="10.42578125" customWidth="1"/>
+    <col min="14593" max="14593" width="3.7109375" customWidth="1"/>
+    <col min="14594" max="14594" width="22.85546875" customWidth="1"/>
+    <col min="14595" max="14597" width="5.85546875" customWidth="1"/>
+    <col min="14598" max="14598" width="8" customWidth="1"/>
+    <col min="14599" max="14599" width="20" customWidth="1"/>
+    <col min="14600" max="14600" width="38.140625" customWidth="1"/>
+    <col min="14601" max="14602" width="10.42578125" customWidth="1"/>
+    <col min="14849" max="14849" width="3.7109375" customWidth="1"/>
+    <col min="14850" max="14850" width="22.85546875" customWidth="1"/>
+    <col min="14851" max="14853" width="5.85546875" customWidth="1"/>
+    <col min="14854" max="14854" width="8" customWidth="1"/>
+    <col min="14855" max="14855" width="20" customWidth="1"/>
+    <col min="14856" max="14856" width="38.140625" customWidth="1"/>
+    <col min="14857" max="14858" width="10.42578125" customWidth="1"/>
+    <col min="15105" max="15105" width="3.7109375" customWidth="1"/>
+    <col min="15106" max="15106" width="22.85546875" customWidth="1"/>
+    <col min="15107" max="15109" width="5.85546875" customWidth="1"/>
+    <col min="15110" max="15110" width="8" customWidth="1"/>
+    <col min="15111" max="15111" width="20" customWidth="1"/>
+    <col min="15112" max="15112" width="38.140625" customWidth="1"/>
+    <col min="15113" max="15114" width="10.42578125" customWidth="1"/>
+    <col min="15361" max="15361" width="3.7109375" customWidth="1"/>
+    <col min="15362" max="15362" width="22.85546875" customWidth="1"/>
+    <col min="15363" max="15365" width="5.85546875" customWidth="1"/>
+    <col min="15366" max="15366" width="8" customWidth="1"/>
+    <col min="15367" max="15367" width="20" customWidth="1"/>
+    <col min="15368" max="15368" width="38.140625" customWidth="1"/>
+    <col min="15369" max="15370" width="10.42578125" customWidth="1"/>
+    <col min="15617" max="15617" width="3.7109375" customWidth="1"/>
+    <col min="15618" max="15618" width="22.85546875" customWidth="1"/>
+    <col min="15619" max="15621" width="5.85546875" customWidth="1"/>
+    <col min="15622" max="15622" width="8" customWidth="1"/>
+    <col min="15623" max="15623" width="20" customWidth="1"/>
+    <col min="15624" max="15624" width="38.140625" customWidth="1"/>
+    <col min="15625" max="15626" width="10.42578125" customWidth="1"/>
+    <col min="15873" max="15873" width="3.7109375" customWidth="1"/>
+    <col min="15874" max="15874" width="22.85546875" customWidth="1"/>
+    <col min="15875" max="15877" width="5.85546875" customWidth="1"/>
+    <col min="15878" max="15878" width="8" customWidth="1"/>
+    <col min="15879" max="15879" width="20" customWidth="1"/>
+    <col min="15880" max="15880" width="38.140625" customWidth="1"/>
+    <col min="15881" max="15882" width="10.42578125" customWidth="1"/>
+    <col min="16129" max="16129" width="3.7109375" customWidth="1"/>
+    <col min="16130" max="16130" width="22.85546875" customWidth="1"/>
+    <col min="16131" max="16133" width="5.85546875" customWidth="1"/>
+    <col min="16134" max="16134" width="8" customWidth="1"/>
+    <col min="16135" max="16135" width="20" customWidth="1"/>
+    <col min="16136" max="16136" width="38.140625" customWidth="1"/>
+    <col min="16137" max="16138" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="64"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CSales office: 04. 3926.4009  Opt office: 04. 3926 3449 Halong office fax: 0333. 511. 576</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF54104-B685-43F1-AF1B-CBFE49EECF24}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="62" customWidth="1"/>
+    <col min="3" max="5" width="5.85546875" style="63" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="63" customWidth="1"/>
+    <col min="7" max="8" width="28" style="62" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="40.85546875" customWidth="1"/>
+    <col min="257" max="257" width="3.7109375" customWidth="1"/>
+    <col min="258" max="258" width="22.85546875" customWidth="1"/>
+    <col min="259" max="261" width="5.85546875" customWidth="1"/>
+    <col min="262" max="262" width="8" customWidth="1"/>
+    <col min="263" max="263" width="20" customWidth="1"/>
+    <col min="264" max="264" width="38.140625" customWidth="1"/>
+    <col min="265" max="266" width="10.42578125" customWidth="1"/>
+    <col min="513" max="513" width="3.7109375" customWidth="1"/>
+    <col min="514" max="514" width="22.85546875" customWidth="1"/>
+    <col min="515" max="517" width="5.85546875" customWidth="1"/>
+    <col min="518" max="518" width="8" customWidth="1"/>
+    <col min="519" max="519" width="20" customWidth="1"/>
+    <col min="520" max="520" width="38.140625" customWidth="1"/>
+    <col min="521" max="522" width="10.42578125" customWidth="1"/>
+    <col min="769" max="769" width="3.7109375" customWidth="1"/>
+    <col min="770" max="770" width="22.85546875" customWidth="1"/>
+    <col min="771" max="773" width="5.85546875" customWidth="1"/>
+    <col min="774" max="774" width="8" customWidth="1"/>
+    <col min="775" max="775" width="20" customWidth="1"/>
+    <col min="776" max="776" width="38.140625" customWidth="1"/>
+    <col min="777" max="778" width="10.42578125" customWidth="1"/>
+    <col min="1025" max="1025" width="3.7109375" customWidth="1"/>
+    <col min="1026" max="1026" width="22.85546875" customWidth="1"/>
+    <col min="1027" max="1029" width="5.85546875" customWidth="1"/>
+    <col min="1030" max="1030" width="8" customWidth="1"/>
+    <col min="1031" max="1031" width="20" customWidth="1"/>
+    <col min="1032" max="1032" width="38.140625" customWidth="1"/>
+    <col min="1033" max="1034" width="10.42578125" customWidth="1"/>
+    <col min="1281" max="1281" width="3.7109375" customWidth="1"/>
+    <col min="1282" max="1282" width="22.85546875" customWidth="1"/>
+    <col min="1283" max="1285" width="5.85546875" customWidth="1"/>
+    <col min="1286" max="1286" width="8" customWidth="1"/>
+    <col min="1287" max="1287" width="20" customWidth="1"/>
+    <col min="1288" max="1288" width="38.140625" customWidth="1"/>
+    <col min="1289" max="1290" width="10.42578125" customWidth="1"/>
+    <col min="1537" max="1537" width="3.7109375" customWidth="1"/>
+    <col min="1538" max="1538" width="22.85546875" customWidth="1"/>
+    <col min="1539" max="1541" width="5.85546875" customWidth="1"/>
+    <col min="1542" max="1542" width="8" customWidth="1"/>
+    <col min="1543" max="1543" width="20" customWidth="1"/>
+    <col min="1544" max="1544" width="38.140625" customWidth="1"/>
+    <col min="1545" max="1546" width="10.42578125" customWidth="1"/>
+    <col min="1793" max="1793" width="3.7109375" customWidth="1"/>
+    <col min="1794" max="1794" width="22.85546875" customWidth="1"/>
+    <col min="1795" max="1797" width="5.85546875" customWidth="1"/>
+    <col min="1798" max="1798" width="8" customWidth="1"/>
+    <col min="1799" max="1799" width="20" customWidth="1"/>
+    <col min="1800" max="1800" width="38.140625" customWidth="1"/>
+    <col min="1801" max="1802" width="10.42578125" customWidth="1"/>
+    <col min="2049" max="2049" width="3.7109375" customWidth="1"/>
+    <col min="2050" max="2050" width="22.85546875" customWidth="1"/>
+    <col min="2051" max="2053" width="5.85546875" customWidth="1"/>
+    <col min="2054" max="2054" width="8" customWidth="1"/>
+    <col min="2055" max="2055" width="20" customWidth="1"/>
+    <col min="2056" max="2056" width="38.140625" customWidth="1"/>
+    <col min="2057" max="2058" width="10.42578125" customWidth="1"/>
+    <col min="2305" max="2305" width="3.7109375" customWidth="1"/>
+    <col min="2306" max="2306" width="22.85546875" customWidth="1"/>
+    <col min="2307" max="2309" width="5.85546875" customWidth="1"/>
+    <col min="2310" max="2310" width="8" customWidth="1"/>
+    <col min="2311" max="2311" width="20" customWidth="1"/>
+    <col min="2312" max="2312" width="38.140625" customWidth="1"/>
+    <col min="2313" max="2314" width="10.42578125" customWidth="1"/>
+    <col min="2561" max="2561" width="3.7109375" customWidth="1"/>
+    <col min="2562" max="2562" width="22.85546875" customWidth="1"/>
+    <col min="2563" max="2565" width="5.85546875" customWidth="1"/>
+    <col min="2566" max="2566" width="8" customWidth="1"/>
+    <col min="2567" max="2567" width="20" customWidth="1"/>
+    <col min="2568" max="2568" width="38.140625" customWidth="1"/>
+    <col min="2569" max="2570" width="10.42578125" customWidth="1"/>
+    <col min="2817" max="2817" width="3.7109375" customWidth="1"/>
+    <col min="2818" max="2818" width="22.85546875" customWidth="1"/>
+    <col min="2819" max="2821" width="5.85546875" customWidth="1"/>
+    <col min="2822" max="2822" width="8" customWidth="1"/>
+    <col min="2823" max="2823" width="20" customWidth="1"/>
+    <col min="2824" max="2824" width="38.140625" customWidth="1"/>
+    <col min="2825" max="2826" width="10.42578125" customWidth="1"/>
+    <col min="3073" max="3073" width="3.7109375" customWidth="1"/>
+    <col min="3074" max="3074" width="22.85546875" customWidth="1"/>
+    <col min="3075" max="3077" width="5.85546875" customWidth="1"/>
+    <col min="3078" max="3078" width="8" customWidth="1"/>
+    <col min="3079" max="3079" width="20" customWidth="1"/>
+    <col min="3080" max="3080" width="38.140625" customWidth="1"/>
+    <col min="3081" max="3082" width="10.42578125" customWidth="1"/>
+    <col min="3329" max="3329" width="3.7109375" customWidth="1"/>
+    <col min="3330" max="3330" width="22.85546875" customWidth="1"/>
+    <col min="3331" max="3333" width="5.85546875" customWidth="1"/>
+    <col min="3334" max="3334" width="8" customWidth="1"/>
+    <col min="3335" max="3335" width="20" customWidth="1"/>
+    <col min="3336" max="3336" width="38.140625" customWidth="1"/>
+    <col min="3337" max="3338" width="10.42578125" customWidth="1"/>
+    <col min="3585" max="3585" width="3.7109375" customWidth="1"/>
+    <col min="3586" max="3586" width="22.85546875" customWidth="1"/>
+    <col min="3587" max="3589" width="5.85546875" customWidth="1"/>
+    <col min="3590" max="3590" width="8" customWidth="1"/>
+    <col min="3591" max="3591" width="20" customWidth="1"/>
+    <col min="3592" max="3592" width="38.140625" customWidth="1"/>
+    <col min="3593" max="3594" width="10.42578125" customWidth="1"/>
+    <col min="3841" max="3841" width="3.7109375" customWidth="1"/>
+    <col min="3842" max="3842" width="22.85546875" customWidth="1"/>
+    <col min="3843" max="3845" width="5.85546875" customWidth="1"/>
+    <col min="3846" max="3846" width="8" customWidth="1"/>
+    <col min="3847" max="3847" width="20" customWidth="1"/>
+    <col min="3848" max="3848" width="38.140625" customWidth="1"/>
+    <col min="3849" max="3850" width="10.42578125" customWidth="1"/>
+    <col min="4097" max="4097" width="3.7109375" customWidth="1"/>
+    <col min="4098" max="4098" width="22.85546875" customWidth="1"/>
+    <col min="4099" max="4101" width="5.85546875" customWidth="1"/>
+    <col min="4102" max="4102" width="8" customWidth="1"/>
+    <col min="4103" max="4103" width="20" customWidth="1"/>
+    <col min="4104" max="4104" width="38.140625" customWidth="1"/>
+    <col min="4105" max="4106" width="10.42578125" customWidth="1"/>
+    <col min="4353" max="4353" width="3.7109375" customWidth="1"/>
+    <col min="4354" max="4354" width="22.85546875" customWidth="1"/>
+    <col min="4355" max="4357" width="5.85546875" customWidth="1"/>
+    <col min="4358" max="4358" width="8" customWidth="1"/>
+    <col min="4359" max="4359" width="20" customWidth="1"/>
+    <col min="4360" max="4360" width="38.140625" customWidth="1"/>
+    <col min="4361" max="4362" width="10.42578125" customWidth="1"/>
+    <col min="4609" max="4609" width="3.7109375" customWidth="1"/>
+    <col min="4610" max="4610" width="22.85546875" customWidth="1"/>
+    <col min="4611" max="4613" width="5.85546875" customWidth="1"/>
+    <col min="4614" max="4614" width="8" customWidth="1"/>
+    <col min="4615" max="4615" width="20" customWidth="1"/>
+    <col min="4616" max="4616" width="38.140625" customWidth="1"/>
+    <col min="4617" max="4618" width="10.42578125" customWidth="1"/>
+    <col min="4865" max="4865" width="3.7109375" customWidth="1"/>
+    <col min="4866" max="4866" width="22.85546875" customWidth="1"/>
+    <col min="4867" max="4869" width="5.85546875" customWidth="1"/>
+    <col min="4870" max="4870" width="8" customWidth="1"/>
+    <col min="4871" max="4871" width="20" customWidth="1"/>
+    <col min="4872" max="4872" width="38.140625" customWidth="1"/>
+    <col min="4873" max="4874" width="10.42578125" customWidth="1"/>
+    <col min="5121" max="5121" width="3.7109375" customWidth="1"/>
+    <col min="5122" max="5122" width="22.85546875" customWidth="1"/>
+    <col min="5123" max="5125" width="5.85546875" customWidth="1"/>
+    <col min="5126" max="5126" width="8" customWidth="1"/>
+    <col min="5127" max="5127" width="20" customWidth="1"/>
+    <col min="5128" max="5128" width="38.140625" customWidth="1"/>
+    <col min="5129" max="5130" width="10.42578125" customWidth="1"/>
+    <col min="5377" max="5377" width="3.7109375" customWidth="1"/>
+    <col min="5378" max="5378" width="22.85546875" customWidth="1"/>
+    <col min="5379" max="5381" width="5.85546875" customWidth="1"/>
+    <col min="5382" max="5382" width="8" customWidth="1"/>
+    <col min="5383" max="5383" width="20" customWidth="1"/>
+    <col min="5384" max="5384" width="38.140625" customWidth="1"/>
+    <col min="5385" max="5386" width="10.42578125" customWidth="1"/>
+    <col min="5633" max="5633" width="3.7109375" customWidth="1"/>
+    <col min="5634" max="5634" width="22.85546875" customWidth="1"/>
+    <col min="5635" max="5637" width="5.85546875" customWidth="1"/>
+    <col min="5638" max="5638" width="8" customWidth="1"/>
+    <col min="5639" max="5639" width="20" customWidth="1"/>
+    <col min="5640" max="5640" width="38.140625" customWidth="1"/>
+    <col min="5641" max="5642" width="10.42578125" customWidth="1"/>
+    <col min="5889" max="5889" width="3.7109375" customWidth="1"/>
+    <col min="5890" max="5890" width="22.85546875" customWidth="1"/>
+    <col min="5891" max="5893" width="5.85546875" customWidth="1"/>
+    <col min="5894" max="5894" width="8" customWidth="1"/>
+    <col min="5895" max="5895" width="20" customWidth="1"/>
+    <col min="5896" max="5896" width="38.140625" customWidth="1"/>
+    <col min="5897" max="5898" width="10.42578125" customWidth="1"/>
+    <col min="6145" max="6145" width="3.7109375" customWidth="1"/>
+    <col min="6146" max="6146" width="22.85546875" customWidth="1"/>
+    <col min="6147" max="6149" width="5.85546875" customWidth="1"/>
+    <col min="6150" max="6150" width="8" customWidth="1"/>
+    <col min="6151" max="6151" width="20" customWidth="1"/>
+    <col min="6152" max="6152" width="38.140625" customWidth="1"/>
+    <col min="6153" max="6154" width="10.42578125" customWidth="1"/>
+    <col min="6401" max="6401" width="3.7109375" customWidth="1"/>
+    <col min="6402" max="6402" width="22.85546875" customWidth="1"/>
+    <col min="6403" max="6405" width="5.85546875" customWidth="1"/>
+    <col min="6406" max="6406" width="8" customWidth="1"/>
+    <col min="6407" max="6407" width="20" customWidth="1"/>
+    <col min="6408" max="6408" width="38.140625" customWidth="1"/>
+    <col min="6409" max="6410" width="10.42578125" customWidth="1"/>
+    <col min="6657" max="6657" width="3.7109375" customWidth="1"/>
+    <col min="6658" max="6658" width="22.85546875" customWidth="1"/>
+    <col min="6659" max="6661" width="5.85546875" customWidth="1"/>
+    <col min="6662" max="6662" width="8" customWidth="1"/>
+    <col min="6663" max="6663" width="20" customWidth="1"/>
+    <col min="6664" max="6664" width="38.140625" customWidth="1"/>
+    <col min="6665" max="6666" width="10.42578125" customWidth="1"/>
+    <col min="6913" max="6913" width="3.7109375" customWidth="1"/>
+    <col min="6914" max="6914" width="22.85546875" customWidth="1"/>
+    <col min="6915" max="6917" width="5.85546875" customWidth="1"/>
+    <col min="6918" max="6918" width="8" customWidth="1"/>
+    <col min="6919" max="6919" width="20" customWidth="1"/>
+    <col min="6920" max="6920" width="38.140625" customWidth="1"/>
+    <col min="6921" max="6922" width="10.42578125" customWidth="1"/>
+    <col min="7169" max="7169" width="3.7109375" customWidth="1"/>
+    <col min="7170" max="7170" width="22.85546875" customWidth="1"/>
+    <col min="7171" max="7173" width="5.85546875" customWidth="1"/>
+    <col min="7174" max="7174" width="8" customWidth="1"/>
+    <col min="7175" max="7175" width="20" customWidth="1"/>
+    <col min="7176" max="7176" width="38.140625" customWidth="1"/>
+    <col min="7177" max="7178" width="10.42578125" customWidth="1"/>
+    <col min="7425" max="7425" width="3.7109375" customWidth="1"/>
+    <col min="7426" max="7426" width="22.85546875" customWidth="1"/>
+    <col min="7427" max="7429" width="5.85546875" customWidth="1"/>
+    <col min="7430" max="7430" width="8" customWidth="1"/>
+    <col min="7431" max="7431" width="20" customWidth="1"/>
+    <col min="7432" max="7432" width="38.140625" customWidth="1"/>
+    <col min="7433" max="7434" width="10.42578125" customWidth="1"/>
+    <col min="7681" max="7681" width="3.7109375" customWidth="1"/>
+    <col min="7682" max="7682" width="22.85546875" customWidth="1"/>
+    <col min="7683" max="7685" width="5.85546875" customWidth="1"/>
+    <col min="7686" max="7686" width="8" customWidth="1"/>
+    <col min="7687" max="7687" width="20" customWidth="1"/>
+    <col min="7688" max="7688" width="38.140625" customWidth="1"/>
+    <col min="7689" max="7690" width="10.42578125" customWidth="1"/>
+    <col min="7937" max="7937" width="3.7109375" customWidth="1"/>
+    <col min="7938" max="7938" width="22.85546875" customWidth="1"/>
+    <col min="7939" max="7941" width="5.85546875" customWidth="1"/>
+    <col min="7942" max="7942" width="8" customWidth="1"/>
+    <col min="7943" max="7943" width="20" customWidth="1"/>
+    <col min="7944" max="7944" width="38.140625" customWidth="1"/>
+    <col min="7945" max="7946" width="10.42578125" customWidth="1"/>
+    <col min="8193" max="8193" width="3.7109375" customWidth="1"/>
+    <col min="8194" max="8194" width="22.85546875" customWidth="1"/>
+    <col min="8195" max="8197" width="5.85546875" customWidth="1"/>
+    <col min="8198" max="8198" width="8" customWidth="1"/>
+    <col min="8199" max="8199" width="20" customWidth="1"/>
+    <col min="8200" max="8200" width="38.140625" customWidth="1"/>
+    <col min="8201" max="8202" width="10.42578125" customWidth="1"/>
+    <col min="8449" max="8449" width="3.7109375" customWidth="1"/>
+    <col min="8450" max="8450" width="22.85546875" customWidth="1"/>
+    <col min="8451" max="8453" width="5.85546875" customWidth="1"/>
+    <col min="8454" max="8454" width="8" customWidth="1"/>
+    <col min="8455" max="8455" width="20" customWidth="1"/>
+    <col min="8456" max="8456" width="38.140625" customWidth="1"/>
+    <col min="8457" max="8458" width="10.42578125" customWidth="1"/>
+    <col min="8705" max="8705" width="3.7109375" customWidth="1"/>
+    <col min="8706" max="8706" width="22.85546875" customWidth="1"/>
+    <col min="8707" max="8709" width="5.85546875" customWidth="1"/>
+    <col min="8710" max="8710" width="8" customWidth="1"/>
+    <col min="8711" max="8711" width="20" customWidth="1"/>
+    <col min="8712" max="8712" width="38.140625" customWidth="1"/>
+    <col min="8713" max="8714" width="10.42578125" customWidth="1"/>
+    <col min="8961" max="8961" width="3.7109375" customWidth="1"/>
+    <col min="8962" max="8962" width="22.85546875" customWidth="1"/>
+    <col min="8963" max="8965" width="5.85546875" customWidth="1"/>
+    <col min="8966" max="8966" width="8" customWidth="1"/>
+    <col min="8967" max="8967" width="20" customWidth="1"/>
+    <col min="8968" max="8968" width="38.140625" customWidth="1"/>
+    <col min="8969" max="8970" width="10.42578125" customWidth="1"/>
+    <col min="9217" max="9217" width="3.7109375" customWidth="1"/>
+    <col min="9218" max="9218" width="22.85546875" customWidth="1"/>
+    <col min="9219" max="9221" width="5.85546875" customWidth="1"/>
+    <col min="9222" max="9222" width="8" customWidth="1"/>
+    <col min="9223" max="9223" width="20" customWidth="1"/>
+    <col min="9224" max="9224" width="38.140625" customWidth="1"/>
+    <col min="9225" max="9226" width="10.42578125" customWidth="1"/>
+    <col min="9473" max="9473" width="3.7109375" customWidth="1"/>
+    <col min="9474" max="9474" width="22.85546875" customWidth="1"/>
+    <col min="9475" max="9477" width="5.85546875" customWidth="1"/>
+    <col min="9478" max="9478" width="8" customWidth="1"/>
+    <col min="9479" max="9479" width="20" customWidth="1"/>
+    <col min="9480" max="9480" width="38.140625" customWidth="1"/>
+    <col min="9481" max="9482" width="10.42578125" customWidth="1"/>
+    <col min="9729" max="9729" width="3.7109375" customWidth="1"/>
+    <col min="9730" max="9730" width="22.85546875" customWidth="1"/>
+    <col min="9731" max="9733" width="5.85546875" customWidth="1"/>
+    <col min="9734" max="9734" width="8" customWidth="1"/>
+    <col min="9735" max="9735" width="20" customWidth="1"/>
+    <col min="9736" max="9736" width="38.140625" customWidth="1"/>
+    <col min="9737" max="9738" width="10.42578125" customWidth="1"/>
+    <col min="9985" max="9985" width="3.7109375" customWidth="1"/>
+    <col min="9986" max="9986" width="22.85546875" customWidth="1"/>
+    <col min="9987" max="9989" width="5.85546875" customWidth="1"/>
+    <col min="9990" max="9990" width="8" customWidth="1"/>
+    <col min="9991" max="9991" width="20" customWidth="1"/>
+    <col min="9992" max="9992" width="38.140625" customWidth="1"/>
+    <col min="9993" max="9994" width="10.42578125" customWidth="1"/>
+    <col min="10241" max="10241" width="3.7109375" customWidth="1"/>
+    <col min="10242" max="10242" width="22.85546875" customWidth="1"/>
+    <col min="10243" max="10245" width="5.85546875" customWidth="1"/>
+    <col min="10246" max="10246" width="8" customWidth="1"/>
+    <col min="10247" max="10247" width="20" customWidth="1"/>
+    <col min="10248" max="10248" width="38.140625" customWidth="1"/>
+    <col min="10249" max="10250" width="10.42578125" customWidth="1"/>
+    <col min="10497" max="10497" width="3.7109375" customWidth="1"/>
+    <col min="10498" max="10498" width="22.85546875" customWidth="1"/>
+    <col min="10499" max="10501" width="5.85546875" customWidth="1"/>
+    <col min="10502" max="10502" width="8" customWidth="1"/>
+    <col min="10503" max="10503" width="20" customWidth="1"/>
+    <col min="10504" max="10504" width="38.140625" customWidth="1"/>
+    <col min="10505" max="10506" width="10.42578125" customWidth="1"/>
+    <col min="10753" max="10753" width="3.7109375" customWidth="1"/>
+    <col min="10754" max="10754" width="22.85546875" customWidth="1"/>
+    <col min="10755" max="10757" width="5.85546875" customWidth="1"/>
+    <col min="10758" max="10758" width="8" customWidth="1"/>
+    <col min="10759" max="10759" width="20" customWidth="1"/>
+    <col min="10760" max="10760" width="38.140625" customWidth="1"/>
+    <col min="10761" max="10762" width="10.42578125" customWidth="1"/>
+    <col min="11009" max="11009" width="3.7109375" customWidth="1"/>
+    <col min="11010" max="11010" width="22.85546875" customWidth="1"/>
+    <col min="11011" max="11013" width="5.85546875" customWidth="1"/>
+    <col min="11014" max="11014" width="8" customWidth="1"/>
+    <col min="11015" max="11015" width="20" customWidth="1"/>
+    <col min="11016" max="11016" width="38.140625" customWidth="1"/>
+    <col min="11017" max="11018" width="10.42578125" customWidth="1"/>
+    <col min="11265" max="11265" width="3.7109375" customWidth="1"/>
+    <col min="11266" max="11266" width="22.85546875" customWidth="1"/>
+    <col min="11267" max="11269" width="5.85546875" customWidth="1"/>
+    <col min="11270" max="11270" width="8" customWidth="1"/>
+    <col min="11271" max="11271" width="20" customWidth="1"/>
+    <col min="11272" max="11272" width="38.140625" customWidth="1"/>
+    <col min="11273" max="11274" width="10.42578125" customWidth="1"/>
+    <col min="11521" max="11521" width="3.7109375" customWidth="1"/>
+    <col min="11522" max="11522" width="22.85546875" customWidth="1"/>
+    <col min="11523" max="11525" width="5.85546875" customWidth="1"/>
+    <col min="11526" max="11526" width="8" customWidth="1"/>
+    <col min="11527" max="11527" width="20" customWidth="1"/>
+    <col min="11528" max="11528" width="38.140625" customWidth="1"/>
+    <col min="11529" max="11530" width="10.42578125" customWidth="1"/>
+    <col min="11777" max="11777" width="3.7109375" customWidth="1"/>
+    <col min="11778" max="11778" width="22.85546875" customWidth="1"/>
+    <col min="11779" max="11781" width="5.85546875" customWidth="1"/>
+    <col min="11782" max="11782" width="8" customWidth="1"/>
+    <col min="11783" max="11783" width="20" customWidth="1"/>
+    <col min="11784" max="11784" width="38.140625" customWidth="1"/>
+    <col min="11785" max="11786" width="10.42578125" customWidth="1"/>
+    <col min="12033" max="12033" width="3.7109375" customWidth="1"/>
+    <col min="12034" max="12034" width="22.85546875" customWidth="1"/>
+    <col min="12035" max="12037" width="5.85546875" customWidth="1"/>
+    <col min="12038" max="12038" width="8" customWidth="1"/>
+    <col min="12039" max="12039" width="20" customWidth="1"/>
+    <col min="12040" max="12040" width="38.140625" customWidth="1"/>
+    <col min="12041" max="12042" width="10.42578125" customWidth="1"/>
+    <col min="12289" max="12289" width="3.7109375" customWidth="1"/>
+    <col min="12290" max="12290" width="22.85546875" customWidth="1"/>
+    <col min="12291" max="12293" width="5.85546875" customWidth="1"/>
+    <col min="12294" max="12294" width="8" customWidth="1"/>
+    <col min="12295" max="12295" width="20" customWidth="1"/>
+    <col min="12296" max="12296" width="38.140625" customWidth="1"/>
+    <col min="12297" max="12298" width="10.42578125" customWidth="1"/>
+    <col min="12545" max="12545" width="3.7109375" customWidth="1"/>
+    <col min="12546" max="12546" width="22.85546875" customWidth="1"/>
+    <col min="12547" max="12549" width="5.85546875" customWidth="1"/>
+    <col min="12550" max="12550" width="8" customWidth="1"/>
+    <col min="12551" max="12551" width="20" customWidth="1"/>
+    <col min="12552" max="12552" width="38.140625" customWidth="1"/>
+    <col min="12553" max="12554" width="10.42578125" customWidth="1"/>
+    <col min="12801" max="12801" width="3.7109375" customWidth="1"/>
+    <col min="12802" max="12802" width="22.85546875" customWidth="1"/>
+    <col min="12803" max="12805" width="5.85546875" customWidth="1"/>
+    <col min="12806" max="12806" width="8" customWidth="1"/>
+    <col min="12807" max="12807" width="20" customWidth="1"/>
+    <col min="12808" max="12808" width="38.140625" customWidth="1"/>
+    <col min="12809" max="12810" width="10.42578125" customWidth="1"/>
+    <col min="13057" max="13057" width="3.7109375" customWidth="1"/>
+    <col min="13058" max="13058" width="22.85546875" customWidth="1"/>
+    <col min="13059" max="13061" width="5.85546875" customWidth="1"/>
+    <col min="13062" max="13062" width="8" customWidth="1"/>
+    <col min="13063" max="13063" width="20" customWidth="1"/>
+    <col min="13064" max="13064" width="38.140625" customWidth="1"/>
+    <col min="13065" max="13066" width="10.42578125" customWidth="1"/>
+    <col min="13313" max="13313" width="3.7109375" customWidth="1"/>
+    <col min="13314" max="13314" width="22.85546875" customWidth="1"/>
+    <col min="13315" max="13317" width="5.85546875" customWidth="1"/>
+    <col min="13318" max="13318" width="8" customWidth="1"/>
+    <col min="13319" max="13319" width="20" customWidth="1"/>
+    <col min="13320" max="13320" width="38.140625" customWidth="1"/>
+    <col min="13321" max="13322" width="10.42578125" customWidth="1"/>
+    <col min="13569" max="13569" width="3.7109375" customWidth="1"/>
+    <col min="13570" max="13570" width="22.85546875" customWidth="1"/>
+    <col min="13571" max="13573" width="5.85546875" customWidth="1"/>
+    <col min="13574" max="13574" width="8" customWidth="1"/>
+    <col min="13575" max="13575" width="20" customWidth="1"/>
+    <col min="13576" max="13576" width="38.140625" customWidth="1"/>
+    <col min="13577" max="13578" width="10.42578125" customWidth="1"/>
+    <col min="13825" max="13825" width="3.7109375" customWidth="1"/>
+    <col min="13826" max="13826" width="22.85546875" customWidth="1"/>
+    <col min="13827" max="13829" width="5.85546875" customWidth="1"/>
+    <col min="13830" max="13830" width="8" customWidth="1"/>
+    <col min="13831" max="13831" width="20" customWidth="1"/>
+    <col min="13832" max="13832" width="38.140625" customWidth="1"/>
+    <col min="13833" max="13834" width="10.42578125" customWidth="1"/>
+    <col min="14081" max="14081" width="3.7109375" customWidth="1"/>
+    <col min="14082" max="14082" width="22.85546875" customWidth="1"/>
+    <col min="14083" max="14085" width="5.85546875" customWidth="1"/>
+    <col min="14086" max="14086" width="8" customWidth="1"/>
+    <col min="14087" max="14087" width="20" customWidth="1"/>
+    <col min="14088" max="14088" width="38.140625" customWidth="1"/>
+    <col min="14089" max="14090" width="10.42578125" customWidth="1"/>
+    <col min="14337" max="14337" width="3.7109375" customWidth="1"/>
+    <col min="14338" max="14338" width="22.85546875" customWidth="1"/>
+    <col min="14339" max="14341" width="5.85546875" customWidth="1"/>
+    <col min="14342" max="14342" width="8" customWidth="1"/>
+    <col min="14343" max="14343" width="20" customWidth="1"/>
+    <col min="14344" max="14344" width="38.140625" customWidth="1"/>
+    <col min="14345" max="14346" width="10.42578125" customWidth="1"/>
+    <col min="14593" max="14593" width="3.7109375" customWidth="1"/>
+    <col min="14594" max="14594" width="22.85546875" customWidth="1"/>
+    <col min="14595" max="14597" width="5.85546875" customWidth="1"/>
+    <col min="14598" max="14598" width="8" customWidth="1"/>
+    <col min="14599" max="14599" width="20" customWidth="1"/>
+    <col min="14600" max="14600" width="38.140625" customWidth="1"/>
+    <col min="14601" max="14602" width="10.42578125" customWidth="1"/>
+    <col min="14849" max="14849" width="3.7109375" customWidth="1"/>
+    <col min="14850" max="14850" width="22.85546875" customWidth="1"/>
+    <col min="14851" max="14853" width="5.85546875" customWidth="1"/>
+    <col min="14854" max="14854" width="8" customWidth="1"/>
+    <col min="14855" max="14855" width="20" customWidth="1"/>
+    <col min="14856" max="14856" width="38.140625" customWidth="1"/>
+    <col min="14857" max="14858" width="10.42578125" customWidth="1"/>
+    <col min="15105" max="15105" width="3.7109375" customWidth="1"/>
+    <col min="15106" max="15106" width="22.85546875" customWidth="1"/>
+    <col min="15107" max="15109" width="5.85546875" customWidth="1"/>
+    <col min="15110" max="15110" width="8" customWidth="1"/>
+    <col min="15111" max="15111" width="20" customWidth="1"/>
+    <col min="15112" max="15112" width="38.140625" customWidth="1"/>
+    <col min="15113" max="15114" width="10.42578125" customWidth="1"/>
+    <col min="15361" max="15361" width="3.7109375" customWidth="1"/>
+    <col min="15362" max="15362" width="22.85546875" customWidth="1"/>
+    <col min="15363" max="15365" width="5.85546875" customWidth="1"/>
+    <col min="15366" max="15366" width="8" customWidth="1"/>
+    <col min="15367" max="15367" width="20" customWidth="1"/>
+    <col min="15368" max="15368" width="38.140625" customWidth="1"/>
+    <col min="15369" max="15370" width="10.42578125" customWidth="1"/>
+    <col min="15617" max="15617" width="3.7109375" customWidth="1"/>
+    <col min="15618" max="15618" width="22.85546875" customWidth="1"/>
+    <col min="15619" max="15621" width="5.85546875" customWidth="1"/>
+    <col min="15622" max="15622" width="8" customWidth="1"/>
+    <col min="15623" max="15623" width="20" customWidth="1"/>
+    <col min="15624" max="15624" width="38.140625" customWidth="1"/>
+    <col min="15625" max="15626" width="10.42578125" customWidth="1"/>
+    <col min="15873" max="15873" width="3.7109375" customWidth="1"/>
+    <col min="15874" max="15874" width="22.85546875" customWidth="1"/>
+    <col min="15875" max="15877" width="5.85546875" customWidth="1"/>
+    <col min="15878" max="15878" width="8" customWidth="1"/>
+    <col min="15879" max="15879" width="20" customWidth="1"/>
+    <col min="15880" max="15880" width="38.140625" customWidth="1"/>
+    <col min="15881" max="15882" width="10.42578125" customWidth="1"/>
+    <col min="16129" max="16129" width="3.7109375" customWidth="1"/>
+    <col min="16130" max="16130" width="22.85546875" customWidth="1"/>
+    <col min="16131" max="16133" width="5.85546875" customWidth="1"/>
+    <col min="16134" max="16134" width="8" customWidth="1"/>
+    <col min="16135" max="16135" width="20" customWidth="1"/>
+    <col min="16136" max="16136" width="38.140625" customWidth="1"/>
+    <col min="16137" max="16138" width="10.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="74"/>
+    </row>
+    <row r="2" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="105" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="78"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="73" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="78"/>
+    </row>
+    <row r="5" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="69"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="64"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;CSales office: 04. 3926.4009  Opt office: 04. 3926 3449 Halong office fax: 0333. 511. 576</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1:J1"/>
     </sheetView>
   </sheetViews>
@@ -1407,18 +2667,18 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="77">
+      <c r="E1" s="86">
         <v>40156</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78" t="s">
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="78"/>
+      <c r="L1" s="88"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1486,41 +2746,41 @@
       <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="93"/>
+      <c r="D6" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="87" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="64" t="s">
+      <c r="K6" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="63" t="s">
+      <c r="L6" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7" s="63"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="28" t="s">
         <v>7</v>
       </c>
@@ -1530,17 +2790,17 @@
       <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="63"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="59"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="63"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="87"/>
     </row>
     <row r="8" spans="1:28" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="97"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
@@ -1601,41 +2861,41 @@
       <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="67" t="s">
+      <c r="C12" s="93"/>
+      <c r="D12" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68" t="s">
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="63" t="s">
+      <c r="H12" s="87" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="63" t="s">
+      <c r="L12" s="87" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="95"/>
       <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1645,17 +2905,17 @@
       <c r="F13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="68"/>
-      <c r="H13" s="63"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="59"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="63"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="87"/>
     </row>
     <row r="14" spans="1:28" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
@@ -1695,14 +2955,14 @@
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="60" t="s">
+      <c r="I16" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="62" t="s">
+      <c r="J16" s="101"/>
+      <c r="K16" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="62"/>
+      <c r="L16" s="102"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
@@ -1758,10 +3018,10 @@
       <c r="A20" s="14"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
       <c r="H20" s="43"/>
       <c r="I20" s="53"/>
       <c r="J20" s="54"/>
@@ -1880,19 +3140,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="I16:J16"/>
@@ -1902,6 +3149,19 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
